--- a/通用透传编码服务指令接口-new.xlsx
+++ b/通用透传编码服务指令接口-new.xlsx
@@ -3972,10 +3972,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5218,7 +5218,7 @@
       <c r="F18" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="G18" s="21" t="s">
         <v>442</v>
       </c>
     </row>
@@ -5229,7 +5229,7 @@
       <c r="F19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="20"/>
+      <c r="G19" s="21"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D20" s="4" t="s">
@@ -5238,7 +5238,7 @@
       <c r="F20" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="G20" s="20"/>
+      <c r="G20" s="21"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D21" s="4" t="s">
@@ -5247,7 +5247,7 @@
       <c r="F21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="20"/>
+      <c r="G21" s="21"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D22" s="4" t="s">
@@ -5256,7 +5256,7 @@
       <c r="F22" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="G22" s="20" t="s">
+      <c r="G22" s="21" t="s">
         <v>536</v>
       </c>
     </row>
@@ -5267,7 +5267,7 @@
       <c r="F23" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="G23" s="20"/>
+      <c r="G23" s="21"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D24" s="4" t="s">
@@ -5276,7 +5276,7 @@
       <c r="F24" s="4" t="s">
         <v>807</v>
       </c>
-      <c r="G24" s="20"/>
+      <c r="G24" s="21"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D25" s="4" t="s">
@@ -5349,11 +5349,11 @@
         <v>923</v>
       </c>
     </row>
-    <row r="36" spans="3:7" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C36" s="21" t="s">
+    <row r="36" spans="3:7" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C36" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="F36" s="21" t="s">
+      <c r="F36" s="20" t="s">
         <v>55</v>
       </c>
     </row>
@@ -7492,7 +7492,7 @@
       <c r="F280" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="G280" s="20" t="s">
+      <c r="G280" s="21" t="s">
         <v>442</v>
       </c>
     </row>
@@ -7503,7 +7503,7 @@
       <c r="F281" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G281" s="20"/>
+      <c r="G281" s="21"/>
     </row>
     <row r="282" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D282" s="4" t="s">
@@ -7512,7 +7512,7 @@
       <c r="F282" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="G282" s="20"/>
+      <c r="G282" s="21"/>
     </row>
     <row r="283" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D283" s="4" t="s">
@@ -7521,7 +7521,7 @@
       <c r="F283" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G283" s="20"/>
+      <c r="G283" s="21"/>
     </row>
     <row r="284" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D284" s="4" t="s">
@@ -7530,7 +7530,7 @@
       <c r="F284" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="G284" s="20" t="s">
+      <c r="G284" s="21" t="s">
         <v>443</v>
       </c>
     </row>
@@ -7541,7 +7541,7 @@
       <c r="F285" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="G285" s="20"/>
+      <c r="G285" s="21"/>
     </row>
     <row r="286" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D286" s="4" t="s">
@@ -7550,7 +7550,7 @@
       <c r="F286" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G286" s="20"/>
+      <c r="G286" s="21"/>
     </row>
     <row r="287" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D287" s="4" t="s">
@@ -9113,7 +9113,7 @@
       <c r="F448" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="G448" s="20" t="s">
+      <c r="G448" s="21" t="s">
         <v>423</v>
       </c>
     </row>
@@ -9124,7 +9124,7 @@
       <c r="F449" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="G449" s="20"/>
+      <c r="G449" s="21"/>
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D450" s="4" t="s">
@@ -9133,7 +9133,7 @@
       <c r="F450" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G450" s="20"/>
+      <c r="G450" s="21"/>
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D451" s="4" t="s">

--- a/通用透传编码服务指令接口-new.xlsx
+++ b/通用透传编码服务指令接口-new.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="952">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="955">
   <si>
     <t>{</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -529,10 +529,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PGN请求数据内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>},{……}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -830,23 +826,247 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>"serialNumber":"2",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"eventType":"2",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"frameFormat":"0",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"isDataId":"0",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"happenCondition":"0",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"startStation":"0",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"duration":"10",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"dataIdLength":"0",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"dataIdBegin":"0",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"isDataId":"0",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"dataIdLength":"0",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"paramContent":</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"pgnPackage":</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"dataId":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"paramContent":</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"eventSet":</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"pgnLimitValue":</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"dataIdBegin":"0",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"isPackage":"0",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"isDataId":"0",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"dataIdLength":"0",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"dataIdBegin":"0",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"pgnCount":"1",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"eventCount":"1",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>"setState":"1",</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"serialNumber":"2",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"eventType":"2",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"pgnSwitch":</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"frameFormat":"0",</t>
+    <t>"paramLength":"0",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"startStation":"0",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"highByte":"0",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"beginCount":"0",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"paramLength":"0",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"startStation":"0",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"highByte":"0",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"scope":"0",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"scope":"0",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"paramValue":"100",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"dataIdLength":"0",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"paramLength":"0",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"startStation":"0",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"highByte":"0",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"beginCount":"0",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"dataIdLength":"0",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"dataId":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"isDataId1":"0",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"paramLength1":"0",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"distribute1":"3",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"paramLength2":"0",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"startStation2":"0",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"highByte2":"0",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"distribute2":"3",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"dataIdLength1":"0",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"dataIdBegin1":"0",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"dataIdLength2":"0",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"dataIdBegin2":"0",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"dataId2":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"unitSet":</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"unitCount":"1",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"pgnId":"",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sendType":"1",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"packageNum":"2",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"frequency":"0",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"timingSend":"10",</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -854,18 +1074,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"happenCondition":"0",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"startStation":"0",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"duration":"10",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"dataIdLength":"0",</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -874,254 +1082,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"dataId":""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"isDataId":"0",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"duration":"10",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"dataIdLength":"0",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"paramContent":</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"pgnPackage":</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"dataId":""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"paramContent":</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"eventSet":</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"pgnLimitValue":</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"dataIdBegin":"0",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"isPackage":"0",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"isDataId":"0",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"dataIdLength":"0",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"dataIdBegin":"0",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"pgnCount":"1",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"eventCount":"1",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"setState":"1",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"paramLength":"0",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"startStation":"0",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"highByte":"0",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"beginCount":"0",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"paramLength":"0",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"startStation":"0",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"highByte":"0",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"scope":"0",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"scope":"0",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"singlePgnDistribute":</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"paramValue":"100",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"dataIdLength":"0",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"paramLength":"0",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"startStation":"0",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"highByte":"0",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"beginCount":"0",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"dataIdLength":"0",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"dataId":""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"isDataId1":"0",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"paramLength1":"0",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"highByte1":"0",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"beginCount1":"0",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"scope1":"0",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"distribute1":"3",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"paramLength2":"0",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"startStation2":"0",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"highByte2":"0",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"distribute2":"3",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"dataIdLength1":"0",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"dataIdBegin1":"0",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"dataIdLength2":"0",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"dataIdBegin2":"0",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"dataId2":""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"unitSet":</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"unitCount":"1",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"pgnId":"",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"sendDataPackage":</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"sendType":"1",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"packageNum":"2",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"frequency":"0",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"timingSend":"10",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"isDataId":"0",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"dataIdLength":"0",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"dataIdBegin":"0",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"lockCount":"1",</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1259,10 +1219,6 @@
   </si>
   <si>
     <t>"gatherEnd":"18",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"pgnDataContent":""</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1516,18 +1472,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>高字节位置1（0-参数高字节在后，1-参数高字节在前）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>计算时间段（0-自然天的累计结果，1-每次key on的累计结果，2-每次Eng on的累计结果，3-永久累计结果（不清零），其他暂定）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>计算时间段1（0-自然天的累计结果，1-每次key on的累计结果，2-每次Eng on的累计结果，3-永久累计结果（不清零），其他暂定）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>参数的长度2，取值范围[1-4]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1544,14 +1492,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分布各点的设定数值1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分布点数1（取值范围1-10）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分布点数2（取值范围1-10）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1712,14 +1652,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PGN请求数据长度，取值范围1-8，单位字节</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"pgnDataLength":"1",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数据ID长度，取值范围1-7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1756,10 +1688,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>参数的长度1，取值范围[1-4]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是否多包（0-单包；1-多包）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1817,10 +1745,6 @@
   </si>
   <si>
     <t>事件条件满足后需持续时间，单位为ms。当条件满足时，需持续此对应时间判断此事件发生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据ID长度，取值范围1-7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2372,10 +2296,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"faultPropertySetting":</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2396,26 +2316,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"komFault":</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"model":""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>机型区别，0-机型8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>故障类型，固定1, J1939故障</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障类型，固定2, KOM仪表故障码采集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2424,18 +2328,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>故障类型，固定3, BT叉车故障码采集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>},</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"pgnCompatThreshold":</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2472,10 +2368,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"pgnCompatSwitch":</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>“事件种类”为3时,必填</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2500,22 +2392,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>发生条件（0-当参数在“参数变化时长”的时间内下降超过“参数变化范围”时报告事件; 1-当参数在“参数变化时长”的时间内上升超过“参数变化范围”时报告事件）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数变化最大时长，单位为ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"paramLength":"",</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"pgnCumulativeTime":</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[{</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2628,47 +2508,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>"paramConditionNum":"",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PGN1 ID的帧格式（0-标准帧；1-扩展帧）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PGN有无数据ID（0-无；1-有）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PGN1有无数据ID（0-无；1-有）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>},{……}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"paramLength":"",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数起始位置，范围[0,7]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分布点数（取值范围1-10）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分布各点的设定数值2，最多10个点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分布各点的设定数值，最多10个点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"distributeValue2":[10,200,30],</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“设置种类”为6时,必填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>"paramConditionList":</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"paramConditionNum":"",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"paramConditionNum":"",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PGN1 ID的帧格式（0-标准帧；1-扩展帧）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PGN有无数据ID（0-无；1-有）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PGN1有无数据ID（0-无；1-有）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>},{……}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"paramLength":"",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数起始位置，范围[0,7]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分布点数（取值范围1-10）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分布各点的设定数值2，最多10个点</t>
+    <t>参数起始位置，范围[0,63]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数位长度，范围[1,4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"distribute":"3",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"distributeValue":[10,200,30]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2676,42 +2580,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"distributeValue2":[10,200,30],</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“设置种类”为6时,必填</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"paramConditionList":</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数起始位置，范围[0,63]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数位长度，范围[1,4]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"distribute":"3",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"distributeValue":[10,200,30]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分布各点的设定数值，最多10个点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多(单)PGN参数条件多(单)PGN参数分布设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"paramDistributeNum":"",</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2736,39 +2604,175 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"fault1939":</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"highByte":"0",</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"happenCondition":"0",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>发生条件（0-当参数大于“参数设定”时事件发生条件满足，1-当参数小于“参数设置”时事件发生条件满足）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>发生条件（0-开关量为0时触发，1-开关量为1时触发）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>参数在PGN中所处的起始位置，取值范围[0-7]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>发生条件（0-事件要求参数大于“阈值设定”; 1-事件要求参数小于“阈值设定”; 2-事件要求参数等于“阈值设定”）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数的长度，范围[1,32]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"paramValue":"",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件条件满足后需持续时间，单位为ms。当条件满足时，需持续此对应时间判断此事件发生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"startStation":"",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数设定值，事件条件满足判断的基准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"highByte":0,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"highByte":0,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>高字节位置（0-参数高字节在后，1-参数高字节在前）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>发生条件（0-事件要求参数大于“阈值设定”; 1-事件要求参数小于“阈值设定”; 2-事件要求参数等于“阈值设定”）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数的长度，范围[1,32]</t>
+    <t>高字节位置（0-参数高字节在后，1-参数高字节在前）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"duration":"10",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"dataIdLength":"0",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"startStation":"",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"paramChangeDuration":"10",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"happenCondition":0,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"paramValue":"",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数位长度，范围[1,32]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数起始位置，取值范围[0-7]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数起始位置，取值范围[0-7]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数起始位置，取值范围[0-7]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发生条件（0-当参数大于“参数设定”时开始累计时间;1-当参数小于“参数设定”时开始累计时间）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"beginCount":"",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"scope":"",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发生条件（0-当参数大于“参数设定”时开始累计时间，1-当参数小于“参数设置”时开始累计时间）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"happenCondition":0,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"startStation":"",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"startStation":"",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"startStation":"",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"scope":"",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"scope":"",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"beginCount":"",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始计算条件（0-Key On时开始计算；1-Eng On时开始计算）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始计算条件（0-Key On时开始计算；1-Eng On时开始计算）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始计算条件（0-Key On时开始计算；1-Eng On时开始计算）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"beginCount":"",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PGN参数条件集合，大小与PGN参数条件个数一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PGN参数分布个数，范围[1,15]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PGN参数条件集合，大小与PGN参数分布个数一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始计算条件（0-Key On时开始计算；1-Eng On时开始计算）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始计算条件（0-Key On时开始计算；1-Eng On时开始计算）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2780,39 +2784,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>事件条件满足后需持续时间，单位为ms。当条件满足时，需持续此对应时间判断此事件发生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"startStation":"",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"paramValue":"100",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数设定值，事件条件满足判断的基准</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"highByte":0,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"highByte":0,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高字节位置（0-参数高字节在后，1-参数高字节在前）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高字节位置（0-参数高字节在后，1-参数高字节在前）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"duration":"10",</t>
+    <t>根据实际情况，设置源地址，取值范围[0,255]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"immediatelyLockSetId":"01",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"allUnlockSetId":"F1",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大小与发送包数一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"beginCount":"0",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"scope":"0",</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2820,206 +2816,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"startStation":"",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"paramChangeDuration":"10",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"happenCondition":0,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"paramValue":"",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"startStation1":"0",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数位长度，范围[1,32]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数起始位置1，取值范围[0-7]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数起始位置，取值范围[0-7]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数起始位置，取值范围[0-7]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数起始位置，取值范围[0-7]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发生条件（0-当参数大于“参数设定”时开始累计时间;1-当参数小于“参数设定”时开始累计时间）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"beginCount":"",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"scope":"",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发生条件（0-当参数大于“参数设定”时开始累计时间，1-当参数小于“参数设置”时开始累计时间）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"distributeValue1":[10,200,30],</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"happenCondition":0,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"startStation":"",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"startStation":"",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"startStation":"",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"scope":"",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"scope":"",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"beginCount":"",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始计算条件（0-Key On时开始计算；1-Eng On时开始计算）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始计算条件（0-Key On时开始计算；1-Eng On时开始计算）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始计算条件（0-Key On时开始计算；1-Eng On时开始计算）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"beginCount":"",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始计算条件1（0-Key On时开始计算；1-Eng On时开始计算）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PGN参数条件集合，大小与PGN参数条件个数一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PGN参数条件集合，大小与PGN参数条件个数一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PGN参数分布个数，范围[1,15]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PGN参数条件集合，大小与PGN参数分布个数一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始计算条件（0-Key On时开始计算；1-Eng On时开始计算）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始计算条件（0-Key On时开始计算；1-Eng On时开始计算）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数设定值，事件条件满足判断的基准</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"paramValue":"",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据实际情况，设置源地址，取值范围[0,255]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"faultSourceAddr":""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"immediatelyLockSetId":"01",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"allUnlockSetId":"F1",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大小与发送包数一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"pgnThreshold":</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"isDataId":"0",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"startStation":"0",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"highByte":"0",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"value":"0",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"beginCount":"0",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"scope":"0",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"dataIdLength":"0",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"happenCondition":"0",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"distributeValue":[10,200,350],</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3164,70 +2960,54 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>PGN ID，参考《通用透传通讯协议02.xxx》中的协议内容--终端私有PGN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"frameFormat2":"1",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"pgnId":"18FF254A",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"isDataId2":"0",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"pgnId2":"18FF254A",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PGN ID1，参考《通用透传通讯协议02.xxx》中的协议内容--终端私有PGN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PGN ID2，参考《通用透传通讯协议02.xxx》中的协议内容--终端私有PGN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PGN ID，参考《通用透传通讯协议02.xxx》中的协议内容--终端私有PGN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"pgnId1":"18FF254A",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PGN1 ID，参考《通用透传通讯协议02.xxx》中的协议内容--终端私有PGN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"source":"7",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>"frameFormat1":"1",</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PGN ID，参考《通用透传通讯协议02.xxx》中的协议内容--终端私有PGN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"frameFormat2":"1",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"pgnId":"18FF254A",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"isDataId2":"0",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"pgnId2":"18FF254A",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PGN ID1，参考《通用透传通讯协议02.xxx》中的协议内容--终端私有PGN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PGN ID2，参考《通用透传通讯协议02.xxx》中的协议内容--终端私有PGN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PGN ID，参考《通用透传通讯协议02.xxx》中的协议内容--终端私有PGN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"pgnId1":"18FF254A",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"pgnId1":"18FF254A",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"pgnId":"18FF254A",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PGN1 ID，参考《通用透传通讯协议02.xxx》中的协议内容--终端私有PGN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PGN ID，参考《通用透传通讯协议02.xxx》中的协议内容--终端私有PGN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"source":"7",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"frameFormat1":"1",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数据ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3236,15 +3016,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PGN ID，参考《通用透传通讯协议02.xxx》中的协议内容--终端私有PGN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>参数在PGN中所处的起始位置，取值范围为0-7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"multiplePgnCumulativeTime":</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3817,6 +3589,246 @@
   </si>
   <si>
     <t>"paramCount":"1",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"frameFormat":"1",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"pgnId":"18FF254A",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"serialNumber":"2",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"dataIdLength":"0",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"dataId":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高字节位置（0-参数高字节在后，1-参数高字节在前）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"highByte":"0",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数设定值，事件条件满足判断的基准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数变化最大时长，单位为ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"startStation":"0",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发生条件（0-当参数在“参数变化时长”的时间内下降超过“参数变化范围”时报告事件; 1-当参数在“参数变化时长”的时间内上升超过“参数变化范围”时报告事件）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"pgnThreshold":</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"pgnSwitch":</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"pgnCompatThreshold":</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"pgnCompatSwitch":</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发生条件（0-开关量为0时触发，1-开关量为1时触发）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sendDataPackage":</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"frameFormat":"1",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"pgnDataLength":"1",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"pgnDataContent":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PGN ID，参考《通用透传通讯协议02.xxx》中的协议内容--终端私有PGN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PGN请求数据长度，取值范围1-8，单位字节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PGN请求数据内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PGN ID的帧格式（0-标准帧；1-扩展帧）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障类型，固定1, J1939故障</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障类型，固定2, KOM仪表故障码采集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障类型，固定3, BT叉车故障码采集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"faultSourceAddr":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"model":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"model":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"fault1939":</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"komFault":</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"faultPropertySetting":</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"paramConditionNum":"",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PGN参数条件个数，范围[1,15]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PGN参数条件集合，大小与PGN参数条件个数一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多(单)PGN参数条件多(单)PGN参数分布设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"paramConditionList":</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"multiplePgnCumulativeTime":</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"pgnCumulativeTime":</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"singlePgnDistribute":</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"frameFormat1":"1",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"startStation1":"0",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"isDataId1":"0",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"pgnId1":"18FF254A",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数的长度1，取值范围[1-4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数起始位置1，取值范围[0-7]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高字节位置1（0-参数高字节在后，1-参数高字节在前）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"highByte1":"0",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"beginCount1":"0",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始计算条件1（0-Key On时开始计算；1-Eng On时开始计算）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算时间段1（0-自然天的累计结果，1-每次key on的累计结果，2-每次Eng on的累计结果，3-永久累计结果（不清零），其他暂定）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"scope1":"0",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"value":"0",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数设定值，事件条件满足判断的基准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"happenCondition":"0",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分布点数1（取值范围1-10）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"distributeValue1":[10,200,30],</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分布各点的设定数值1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3903,7 +3915,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3913,6 +3925,54 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3929,7 +3989,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3976,6 +4036,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4345,7 +4413,7 @@
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -4365,7 +4433,7 @@
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -4385,7 +4453,7 @@
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -4405,7 +4473,7 @@
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -4425,7 +4493,7 @@
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -4462,7 +4530,7 @@
     <row r="13" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -4498,7 +4566,7 @@
     <row r="15" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -4518,7 +4586,7 @@
     <row r="16" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -4544,7 +4612,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>3</v>
@@ -4558,7 +4626,7 @@
     <row r="18" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -4578,7 +4646,7 @@
     <row r="19" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -4598,7 +4666,7 @@
     <row r="20" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -4607,10 +4675,10 @@
         <v>12</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>817</v>
+        <v>760</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -4620,7 +4688,7 @@
     <row r="21" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -4629,7 +4697,7 @@
         <v>5</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>815</v>
+        <v>758</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="4"/>
@@ -4640,7 +4708,7 @@
     <row r="22" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -4660,13 +4728,13 @@
     <row r="23" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -4678,7 +4746,7 @@
     <row r="24" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -4696,7 +4764,7 @@
     <row r="25" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -4705,7 +4773,7 @@
         <v>15</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>814</v>
+        <v>757</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="4"/>
@@ -4716,13 +4784,13 @@
     <row r="26" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>3</v>
@@ -4736,16 +4804,16 @@
     <row r="27" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>816</v>
+        <v>759</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="4"/>
@@ -4756,13 +4824,13 @@
     <row r="28" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>550</v>
+        <v>531</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -4774,16 +4842,16 @@
     <row r="29" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>882</v>
+        <v>825</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4" t="s">
-        <v>551</v>
+        <v>532</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>881</v>
+        <v>824</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="4"/>
@@ -4829,7 +4897,7 @@
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -4845,7 +4913,7 @@
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -4876,7 +4944,7 @@
     <row r="35" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -4885,7 +4953,7 @@
         <v>50</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="4"/>
@@ -4897,7 +4965,7 @@
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>547</v>
+        <v>528</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -4913,12 +4981,12 @@
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="2" t="s">
-        <v>552</v>
+        <v>533</v>
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="2"/>
@@ -4931,15 +4999,15 @@
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>553</v>
+        <v>534</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="2" t="s">
-        <v>554</v>
+        <v>535</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>549</v>
+        <v>530</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="4"/>
@@ -4951,15 +5019,15 @@
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="4" t="s">
-        <v>555</v>
+        <v>536</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4" t="s">
-        <v>556</v>
+        <v>537</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>549</v>
+        <v>530</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="4"/>
@@ -4971,15 +5039,15 @@
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="4" t="s">
-        <v>557</v>
+        <v>538</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>549</v>
+        <v>530</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="4"/>
@@ -4991,7 +5059,7 @@
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>548</v>
+        <v>529</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -5005,7 +5073,7 @@
     <row r="42" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -5048,8 +5116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H574"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A342" workbookViewId="0">
+      <selection activeCell="F353" sqref="F353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -5098,7 +5166,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C7" s="4" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>17</v>
@@ -5109,21 +5177,21 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C8" s="4" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="36" x14ac:dyDescent="0.15">
       <c r="C9" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>915</v>
+        <v>858</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>2</v>
@@ -5137,7 +5205,7 @@
         <v>18</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>916</v>
+        <v>859</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -5147,10 +5215,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D12" s="4" t="s">
-        <v>778</v>
+        <v>727</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>2</v>
@@ -5158,10 +5226,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D13" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>2</v>
@@ -5169,10 +5237,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D14" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>2</v>
@@ -5180,10 +5248,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D15" s="4" t="s">
-        <v>779</v>
+        <v>728</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>2</v>
@@ -5191,10 +5259,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D16" s="4" t="s">
-        <v>780</v>
+        <v>729</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>921</v>
+        <v>864</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>2</v>
@@ -5202,10 +5270,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D17" s="4" t="s">
-        <v>781</v>
+        <v>730</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>498</v>
+        <v>479</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>2</v>
@@ -5213,18 +5281,18 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D18" s="4" t="s">
-        <v>767</v>
+        <v>716</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D19" s="4" t="s">
-        <v>777</v>
+        <v>726</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>20</v>
@@ -5233,16 +5301,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D20" s="4" t="s">
-        <v>768</v>
+        <v>717</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="G20" s="21"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D21" s="4" t="s">
-        <v>775</v>
+        <v>724</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>21</v>
@@ -5251,30 +5319,30 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D22" s="4" t="s">
-        <v>922</v>
+        <v>865</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>536</v>
+        <v>517</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D23" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="G23" s="21"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D24" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>807</v>
+        <v>752</v>
       </c>
       <c r="G24" s="21"/>
     </row>
@@ -5290,7 +5358,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
-        <v>924</v>
+        <v>867</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
@@ -5321,7 +5389,7 @@
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C33" s="4" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>54</v>
@@ -5332,26 +5400,26 @@
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C34" s="4" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C35" s="4" t="s">
-        <v>951</v>
+        <v>894</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>923</v>
+        <v>866</v>
       </c>
     </row>
     <row r="36" spans="3:7" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C36" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F36" s="20" t="s">
         <v>55</v>
@@ -5359,7 +5427,7 @@
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C37" s="4" t="s">
-        <v>925</v>
+        <v>868</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>56</v>
@@ -5367,7 +5435,7 @@
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C38" s="4" t="s">
-        <v>926</v>
+        <v>869</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>57</v>
@@ -5375,7 +5443,7 @@
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C39" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>58</v>
@@ -5383,7 +5451,7 @@
     </row>
     <row r="40" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C40" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>59</v>
@@ -5391,7 +5459,7 @@
     </row>
     <row r="41" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C41" s="4" t="s">
-        <v>927</v>
+        <v>870</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>60</v>
@@ -5399,7 +5467,7 @@
     </row>
     <row r="42" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C42" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>61</v>
@@ -5407,7 +5475,7 @@
     </row>
     <row r="43" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C43" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>62</v>
@@ -5415,7 +5483,7 @@
     </row>
     <row r="44" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C44" s="4" t="s">
-        <v>928</v>
+        <v>871</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>63</v>
@@ -5423,7 +5491,7 @@
     </row>
     <row r="45" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C45" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>64</v>
@@ -5431,7 +5499,7 @@
     </row>
     <row r="46" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C46" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>65</v>
@@ -5439,7 +5507,7 @@
     </row>
     <row r="47" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C47" s="4" t="s">
-        <v>929</v>
+        <v>872</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>66</v>
@@ -5447,63 +5515,63 @@
     </row>
     <row r="48" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C48" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C49" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>461</v>
+        <v>442</v>
       </c>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C50" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
     </row>
     <row r="51" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C51" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>459</v>
+        <v>440</v>
       </c>
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C52" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>464</v>
+        <v>445</v>
       </c>
     </row>
     <row r="53" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C53" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>465</v>
+        <v>446</v>
       </c>
     </row>
     <row r="54" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C54" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>460</v>
+        <v>441</v>
       </c>
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C55" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>67</v>
@@ -5511,7 +5579,7 @@
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C56" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>68</v>
@@ -5519,71 +5587,71 @@
     </row>
     <row r="57" spans="3:6" ht="24" x14ac:dyDescent="0.15">
       <c r="C57" s="4" t="s">
-        <v>930</v>
+        <v>873</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>477</v>
+        <v>458</v>
       </c>
     </row>
     <row r="58" spans="3:6" ht="36" x14ac:dyDescent="0.15">
       <c r="C58" s="4" t="s">
-        <v>931</v>
+        <v>874</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>478</v>
+        <v>459</v>
       </c>
     </row>
     <row r="59" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C59" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>487</v>
+        <v>468</v>
       </c>
     </row>
     <row r="60" spans="3:6" ht="36" x14ac:dyDescent="0.15">
       <c r="C60" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>479</v>
+        <v>460</v>
       </c>
     </row>
     <row r="61" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C61" s="4" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>886</v>
+        <v>829</v>
       </c>
     </row>
     <row r="62" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C62" s="4" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
     </row>
     <row r="63" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C63" s="4" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>562</v>
+        <v>543</v>
       </c>
     </row>
     <row r="64" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C64" s="4" t="s">
-        <v>570</v>
+        <v>551</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>531</v>
+        <v>512</v>
       </c>
     </row>
     <row r="65" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C65" s="4" t="s">
-        <v>932</v>
+        <v>875</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>70</v>
@@ -5599,7 +5667,7 @@
         <v>72</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>488</v>
+        <v>469</v>
       </c>
     </row>
     <row r="68" spans="3:6" x14ac:dyDescent="0.15">
@@ -5607,7 +5675,7 @@
         <v>73</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>489</v>
+        <v>470</v>
       </c>
     </row>
     <row r="69" spans="3:6" x14ac:dyDescent="0.15">
@@ -5615,7 +5683,7 @@
         <v>74</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
     </row>
     <row r="70" spans="3:6" x14ac:dyDescent="0.15">
@@ -5623,225 +5691,225 @@
         <v>75</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
     </row>
     <row r="71" spans="3:6" x14ac:dyDescent="0.15">
       <c r="D71" s="4" t="s">
-        <v>861</v>
+        <v>804</v>
       </c>
     </row>
     <row r="72" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C72" s="4" t="s">
-        <v>583</v>
+        <v>564</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>588</v>
+        <v>569</v>
       </c>
     </row>
     <row r="73" spans="3:6" x14ac:dyDescent="0.15">
       <c r="D73" s="4" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
     </row>
     <row r="74" spans="3:6" x14ac:dyDescent="0.15">
       <c r="D74" s="4" t="s">
-        <v>580</v>
+        <v>561</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>578</v>
+        <v>559</v>
       </c>
     </row>
     <row r="75" spans="3:6" x14ac:dyDescent="0.15">
       <c r="D75" s="4" t="s">
-        <v>582</v>
+        <v>563</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>577</v>
+        <v>558</v>
       </c>
     </row>
     <row r="76" spans="3:6" x14ac:dyDescent="0.15">
       <c r="D76" s="4" t="s">
-        <v>581</v>
+        <v>562</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>576</v>
+        <v>557</v>
       </c>
     </row>
     <row r="77" spans="3:6" x14ac:dyDescent="0.15">
       <c r="D77" s="4" t="s">
-        <v>579</v>
+        <v>560</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>589</v>
+        <v>570</v>
       </c>
     </row>
     <row r="78" spans="3:6" x14ac:dyDescent="0.15">
       <c r="D78" s="4" t="s">
-        <v>587</v>
+        <v>568</v>
       </c>
     </row>
     <row r="79" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C79" s="4" t="s">
-        <v>533</v>
+        <v>514</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>532</v>
+        <v>513</v>
       </c>
     </row>
     <row r="80" spans="3:6" ht="24" x14ac:dyDescent="0.15">
       <c r="C80" s="4" t="s">
-        <v>933</v>
+        <v>876</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>537</v>
+        <v>518</v>
       </c>
     </row>
     <row r="81" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C81" s="4" t="s">
-        <v>934</v>
+        <v>877</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>535</v>
+        <v>516</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>538</v>
+        <v>519</v>
       </c>
     </row>
     <row r="82" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C82" s="4" t="s">
-        <v>935</v>
+        <v>878</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>539</v>
+        <v>520</v>
       </c>
     </row>
     <row r="83" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C83" s="4" t="s">
-        <v>936</v>
+        <v>879</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>540</v>
+        <v>521</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>541</v>
+        <v>522</v>
       </c>
     </row>
     <row r="84" spans="3:7" ht="24" x14ac:dyDescent="0.15">
       <c r="C84" s="4" t="s">
-        <v>938</v>
+        <v>881</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>848</v>
+        <v>791</v>
       </c>
     </row>
     <row r="85" spans="3:7" ht="24" x14ac:dyDescent="0.15">
       <c r="C85" s="4" t="s">
-        <v>759</v>
+        <v>708</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>766</v>
+        <v>715</v>
       </c>
     </row>
     <row r="86" spans="3:7" ht="24" x14ac:dyDescent="0.15">
       <c r="C86" s="4" t="s">
-        <v>937</v>
+        <v>880</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>764</v>
+        <v>713</v>
       </c>
     </row>
     <row r="87" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C87" s="16" t="s">
-        <v>939</v>
+        <v>882</v>
       </c>
       <c r="D87" s="16"/>
       <c r="E87" s="16"/>
       <c r="F87" s="17" t="s">
-        <v>820</v>
+        <v>763</v>
       </c>
     </row>
     <row r="88" spans="3:7" ht="24" x14ac:dyDescent="0.15">
       <c r="C88" s="16" t="s">
-        <v>941</v>
+        <v>884</v>
       </c>
       <c r="D88" s="16"/>
       <c r="E88" s="16"/>
       <c r="F88" s="17" t="s">
-        <v>940</v>
+        <v>883</v>
       </c>
     </row>
     <row r="89" spans="3:7" ht="24" x14ac:dyDescent="0.15">
       <c r="C89" s="16" t="s">
-        <v>942</v>
+        <v>885</v>
       </c>
       <c r="D89" s="16"/>
       <c r="E89" s="16"/>
       <c r="F89" s="17" t="s">
-        <v>821</v>
+        <v>764</v>
       </c>
     </row>
     <row r="90" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C90" s="16" t="s">
-        <v>943</v>
+        <v>886</v>
       </c>
       <c r="D90" s="16"/>
       <c r="E90" s="16"/>
       <c r="F90" s="16" t="s">
-        <v>822</v>
+        <v>765</v>
       </c>
     </row>
     <row r="91" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C91" s="16" t="s">
-        <v>944</v>
+        <v>887</v>
       </c>
       <c r="D91" s="16"/>
       <c r="E91" s="16"/>
       <c r="F91" s="16" t="s">
-        <v>823</v>
+        <v>766</v>
       </c>
     </row>
     <row r="92" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C92" s="16" t="s">
-        <v>945</v>
+        <v>888</v>
       </c>
       <c r="D92" s="16"/>
       <c r="E92" s="16"/>
       <c r="F92" s="16" t="s">
-        <v>838</v>
+        <v>781</v>
       </c>
     </row>
     <row r="93" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C93" s="16" t="s">
-        <v>946</v>
+        <v>889</v>
       </c>
       <c r="D93" s="16"/>
       <c r="E93" s="16"/>
       <c r="F93" s="16" t="s">
-        <v>824</v>
+        <v>767</v>
       </c>
     </row>
     <row r="94" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C94" s="16" t="s">
-        <v>825</v>
+        <v>768</v>
       </c>
       <c r="D94" s="16"/>
       <c r="E94" s="16"/>
       <c r="F94" s="16" t="s">
-        <v>826</v>
+        <v>769</v>
       </c>
     </row>
     <row r="95" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C95" s="16" t="s">
-        <v>827</v>
+        <v>770</v>
       </c>
       <c r="D95" s="16"/>
       <c r="E95" s="16"/>
       <c r="F95" s="16" t="s">
-        <v>841</v>
+        <v>784</v>
       </c>
     </row>
     <row r="96" spans="3:7" x14ac:dyDescent="0.15">
@@ -5855,21 +5923,21 @@
     <row r="97" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C97" s="16"/>
       <c r="D97" s="16" t="s">
-        <v>828</v>
+        <v>771</v>
       </c>
       <c r="E97" s="16"/>
       <c r="F97" s="16" t="s">
-        <v>829</v>
+        <v>772</v>
       </c>
     </row>
     <row r="98" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C98" s="16"/>
       <c r="D98" s="16" t="s">
-        <v>858</v>
+        <v>801</v>
       </c>
       <c r="E98" s="16"/>
       <c r="F98" s="16" t="s">
-        <v>830</v>
+        <v>773</v>
       </c>
     </row>
     <row r="99" spans="3:6" x14ac:dyDescent="0.15">
@@ -5882,28 +5950,28 @@
     </row>
     <row r="100" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C100" s="16" t="s">
-        <v>947</v>
+        <v>890</v>
       </c>
       <c r="D100" s="16"/>
       <c r="E100" s="16"/>
       <c r="F100" s="17" t="s">
-        <v>852</v>
+        <v>795</v>
       </c>
     </row>
     <row r="101" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C101" s="16" t="s">
-        <v>850</v>
+        <v>793</v>
       </c>
       <c r="D101" s="16"/>
       <c r="E101" s="16"/>
       <c r="F101" s="17" t="s">
-        <v>851</v>
+        <v>794</v>
       </c>
     </row>
     <row r="102" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C102" s="16"/>
       <c r="D102" s="16" t="s">
-        <v>843</v>
+        <v>786</v>
       </c>
       <c r="E102" s="16"/>
       <c r="F102" s="17"/>
@@ -5911,55 +5979,55 @@
     <row r="103" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C103" s="16"/>
       <c r="D103" s="16" t="s">
-        <v>845</v>
+        <v>788</v>
       </c>
       <c r="E103" s="16"/>
       <c r="F103" s="17" t="s">
-        <v>844</v>
+        <v>787</v>
       </c>
     </row>
     <row r="104" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C104" s="16"/>
       <c r="D104" s="16" t="s">
-        <v>846</v>
+        <v>789</v>
       </c>
       <c r="E104" s="16"/>
       <c r="F104" s="17" t="s">
-        <v>847</v>
+        <v>790</v>
       </c>
     </row>
     <row r="105" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C105" s="16"/>
       <c r="D105" s="16" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="E105" s="16"/>
       <c r="F105" s="17"/>
     </row>
     <row r="106" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C106" s="16" t="s">
-        <v>868</v>
+        <v>811</v>
       </c>
       <c r="D106" s="16"/>
       <c r="E106" s="16"/>
       <c r="F106" s="17" t="s">
-        <v>948</v>
+        <v>891</v>
       </c>
     </row>
     <row r="107" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C107" s="16" t="s">
-        <v>949</v>
+        <v>892</v>
       </c>
       <c r="D107" s="16"/>
       <c r="E107" s="16"/>
       <c r="F107" s="17" t="s">
-        <v>872</v>
+        <v>815</v>
       </c>
     </row>
     <row r="108" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C108" s="16"/>
       <c r="D108" s="16" t="s">
-        <v>853</v>
+        <v>796</v>
       </c>
       <c r="E108" s="16"/>
       <c r="F108" s="17"/>
@@ -5967,48 +6035,48 @@
     <row r="109" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C109" s="16"/>
       <c r="D109" s="16" t="s">
-        <v>855</v>
+        <v>798</v>
       </c>
       <c r="E109" s="16"/>
       <c r="F109" s="17" t="s">
-        <v>854</v>
+        <v>797</v>
       </c>
     </row>
     <row r="110" spans="3:6" ht="24" x14ac:dyDescent="0.15">
       <c r="C110" s="16"/>
       <c r="D110" s="16" t="s">
-        <v>856</v>
+        <v>799</v>
       </c>
       <c r="E110" s="16"/>
       <c r="F110" s="17" t="s">
-        <v>950</v>
+        <v>893</v>
       </c>
     </row>
     <row r="111" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C111" s="16"/>
       <c r="D111" s="16" t="s">
-        <v>863</v>
+        <v>806</v>
       </c>
       <c r="E111" s="16"/>
       <c r="F111" s="17" t="s">
-        <v>857</v>
+        <v>800</v>
       </c>
     </row>
     <row r="112" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C112" s="16"/>
       <c r="D112" s="16" t="s">
-        <v>860</v>
+        <v>803</v>
       </c>
       <c r="E112" s="16"/>
       <c r="F112" s="17" t="s">
-        <v>867</v>
+        <v>810</v>
       </c>
     </row>
     <row r="113" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C113" s="16"/>
       <c r="D113" s="16"/>
       <c r="E113" s="16" t="s">
-        <v>859</v>
+        <v>802</v>
       </c>
       <c r="F113" s="17"/>
     </row>
@@ -6016,108 +6084,108 @@
       <c r="C114" s="16"/>
       <c r="D114" s="16"/>
       <c r="E114" s="16" t="s">
-        <v>864</v>
+        <v>807</v>
       </c>
       <c r="F114" s="17" t="s">
-        <v>866</v>
+        <v>809</v>
       </c>
     </row>
     <row r="115" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C115" s="16"/>
       <c r="D115" s="16"/>
       <c r="E115" s="16" t="s">
-        <v>865</v>
+        <v>808</v>
       </c>
       <c r="F115" s="17" t="s">
-        <v>873</v>
+        <v>816</v>
       </c>
     </row>
     <row r="116" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C116" s="16"/>
       <c r="D116" s="16"/>
       <c r="E116" s="16" t="s">
-        <v>862</v>
+        <v>805</v>
       </c>
       <c r="F116" s="17"/>
     </row>
     <row r="117" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C117" s="16"/>
       <c r="D117" s="16" t="s">
-        <v>587</v>
+        <v>568</v>
       </c>
       <c r="E117" s="16"/>
       <c r="F117" s="17"/>
     </row>
     <row r="118" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C118" s="4" t="s">
-        <v>880</v>
+        <v>823</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>874</v>
+        <v>817</v>
       </c>
     </row>
     <row r="119" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C119" s="4" t="s">
-        <v>888</v>
+        <v>831</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>875</v>
+        <v>818</v>
       </c>
     </row>
     <row r="120" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C120" s="6" t="s">
-        <v>889</v>
+        <v>832</v>
       </c>
       <c r="D120" s="6"/>
       <c r="E120" s="6"/>
       <c r="F120" s="18" t="s">
-        <v>903</v>
+        <v>846</v>
       </c>
     </row>
     <row r="121" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C121" s="6" t="s">
-        <v>890</v>
+        <v>833</v>
       </c>
       <c r="D121" s="6"/>
       <c r="E121" s="6"/>
       <c r="F121" s="18" t="s">
-        <v>905</v>
+        <v>848</v>
       </c>
     </row>
     <row r="122" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C122" s="6" t="s">
-        <v>891</v>
+        <v>834</v>
       </c>
       <c r="D122" s="6"/>
       <c r="E122" s="6"/>
       <c r="F122" s="18" t="s">
-        <v>907</v>
+        <v>850</v>
       </c>
     </row>
     <row r="123" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C123" s="6" t="s">
-        <v>892</v>
+        <v>835</v>
       </c>
       <c r="D123" s="6"/>
       <c r="E123" s="6"/>
       <c r="F123" s="18" t="s">
-        <v>909</v>
+        <v>852</v>
       </c>
     </row>
     <row r="124" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C124" s="6" t="s">
-        <v>893</v>
+        <v>836</v>
       </c>
       <c r="D124" s="6"/>
       <c r="E124" s="6"/>
       <c r="F124" s="18" t="s">
-        <v>911</v>
+        <v>854</v>
       </c>
     </row>
     <row r="125" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C125" s="6"/>
       <c r="D125" s="6" t="s">
-        <v>894</v>
+        <v>837</v>
       </c>
       <c r="E125" s="6"/>
       <c r="F125" s="18"/>
@@ -6125,30 +6193,30 @@
     <row r="126" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C126" s="6"/>
       <c r="D126" s="6" t="s">
-        <v>917</v>
+        <v>860</v>
       </c>
       <c r="E126" s="6"/>
       <c r="F126" s="18" t="s">
-        <v>920</v>
+        <v>863</v>
       </c>
     </row>
     <row r="127" spans="3:7" ht="24" x14ac:dyDescent="0.15">
       <c r="C127" s="6"/>
       <c r="D127" s="6" t="s">
-        <v>918</v>
+        <v>861</v>
       </c>
       <c r="E127" s="6"/>
       <c r="F127" s="18" t="s">
-        <v>919</v>
+        <v>862</v>
       </c>
       <c r="G127" s="18" t="s">
-        <v>896</v>
+        <v>839</v>
       </c>
     </row>
     <row r="128" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C128" s="6"/>
       <c r="D128" s="6" t="s">
-        <v>895</v>
+        <v>838</v>
       </c>
       <c r="E128" s="6"/>
       <c r="F128" s="18"/>
@@ -6191,29 +6259,29 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C136" s="4" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="F136" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C137" s="4" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C138" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F138" s="4" t="s">
         <v>78</v>
@@ -6221,7 +6289,7 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C139" s="4" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="F139" s="4" t="s">
         <v>79</v>
@@ -6229,7 +6297,7 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C140" s="4" t="s">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="F140" s="4" t="s">
         <v>56</v>
@@ -6237,7 +6305,7 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C141" s="4" t="s">
-        <v>501</v>
+        <v>482</v>
       </c>
       <c r="F141" s="4" t="s">
         <v>57</v>
@@ -6245,7 +6313,7 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C142" s="4" t="s">
-        <v>502</v>
+        <v>483</v>
       </c>
       <c r="F142" s="4" t="s">
         <v>59</v>
@@ -6253,7 +6321,7 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C143" s="4" t="s">
-        <v>503</v>
+        <v>484</v>
       </c>
       <c r="F143" s="4" t="s">
         <v>60</v>
@@ -6261,7 +6329,7 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C144" s="4" t="s">
-        <v>504</v>
+        <v>485</v>
       </c>
       <c r="F144" s="4" t="s">
         <v>62</v>
@@ -6269,7 +6337,7 @@
     </row>
     <row r="145" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C145" s="4" t="s">
-        <v>505</v>
+        <v>486</v>
       </c>
       <c r="F145" s="4" t="s">
         <v>63</v>
@@ -6277,7 +6345,7 @@
     </row>
     <row r="146" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C146" s="4" t="s">
-        <v>506</v>
+        <v>487</v>
       </c>
       <c r="F146" s="4" t="s">
         <v>65</v>
@@ -6285,7 +6353,7 @@
     </row>
     <row r="147" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C147" s="4" t="s">
-        <v>507</v>
+        <v>488</v>
       </c>
       <c r="F147" s="4" t="s">
         <v>66</v>
@@ -6293,148 +6361,148 @@
     </row>
     <row r="148" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C148" s="4" t="s">
-        <v>508</v>
+        <v>489</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>468</v>
+        <v>449</v>
       </c>
     </row>
     <row r="149" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C149" s="4" t="s">
-        <v>509</v>
+        <v>490</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>469</v>
+        <v>450</v>
       </c>
     </row>
     <row r="150" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C150" s="4" t="s">
-        <v>510</v>
+        <v>491</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>470</v>
+        <v>451</v>
       </c>
     </row>
     <row r="151" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C151" s="4" t="s">
-        <v>511</v>
+        <v>492</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>471</v>
+        <v>452</v>
       </c>
     </row>
     <row r="152" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C152" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>472</v>
+        <v>453</v>
       </c>
     </row>
     <row r="153" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C153" s="4" t="s">
-        <v>512</v>
+        <v>493</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>473</v>
+        <v>454</v>
       </c>
     </row>
     <row r="154" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C154" s="4" t="s">
-        <v>513</v>
+        <v>494</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>474</v>
+        <v>455</v>
       </c>
     </row>
     <row r="155" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C155" s="4" t="s">
-        <v>514</v>
+        <v>495</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>475</v>
+        <v>456</v>
       </c>
     </row>
     <row r="156" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C156" s="4" t="s">
-        <v>515</v>
+        <v>496</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>476</v>
+        <v>457</v>
       </c>
     </row>
     <row r="157" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C157" s="4" t="s">
-        <v>516</v>
+        <v>497</v>
       </c>
       <c r="F157" s="8" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="G157" s="5"/>
     </row>
     <row r="158" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C158" s="4" t="s">
-        <v>517</v>
+        <v>498</v>
       </c>
       <c r="F158" s="8" t="s">
-        <v>523</v>
+        <v>504</v>
       </c>
       <c r="G158" s="5"/>
     </row>
     <row r="159" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C159" s="4" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>481</v>
+        <v>462</v>
       </c>
     </row>
     <row r="160" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C160" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F160" s="8" t="s">
-        <v>482</v>
+        <v>463</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>467</v>
+        <v>448</v>
       </c>
     </row>
     <row r="161" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C161" s="4" t="s">
-        <v>519</v>
+        <v>500</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>486</v>
+        <v>467</v>
       </c>
     </row>
     <row r="162" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C162" s="4" t="s">
-        <v>520</v>
+        <v>501</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
     </row>
     <row r="163" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C163" s="4" t="s">
-        <v>521</v>
+        <v>502</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>484</v>
+        <v>465</v>
       </c>
     </row>
     <row r="164" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C164" s="4" t="s">
-        <v>522</v>
+        <v>503</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>485</v>
+        <v>466</v>
       </c>
     </row>
     <row r="165" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C165" s="4" t="s">
-        <v>571</v>
+        <v>552</v>
       </c>
       <c r="F165" s="4" t="s">
         <v>70</v>
@@ -6442,211 +6510,211 @@
     </row>
     <row r="166" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C166" s="4" t="s">
-        <v>584</v>
+        <v>565</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>572</v>
+        <v>553</v>
       </c>
     </row>
     <row r="167" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C167" s="4" t="s">
-        <v>585</v>
+        <v>566</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>573</v>
+        <v>554</v>
       </c>
     </row>
     <row r="168" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C168" s="4" t="s">
-        <v>586</v>
+        <v>567</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>574</v>
+        <v>555</v>
       </c>
     </row>
     <row r="169" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C169" s="4" t="s">
-        <v>760</v>
+        <v>709</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>762</v>
+        <v>711</v>
       </c>
     </row>
     <row r="170" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C170" s="4" t="s">
-        <v>761</v>
+        <v>710</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>763</v>
+        <v>712</v>
       </c>
     </row>
     <row r="171" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C171" s="4" t="s">
-        <v>808</v>
+        <v>753</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>765</v>
+        <v>714</v>
       </c>
     </row>
     <row r="172" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C172" s="16" t="s">
-        <v>842</v>
+        <v>785</v>
       </c>
       <c r="D172" s="16"/>
       <c r="E172" s="16"/>
       <c r="F172" s="16" t="s">
-        <v>819</v>
+        <v>762</v>
       </c>
     </row>
     <row r="173" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C173" s="16" t="s">
-        <v>831</v>
+        <v>774</v>
       </c>
       <c r="D173" s="16"/>
       <c r="E173" s="16"/>
       <c r="F173" s="17" t="s">
-        <v>833</v>
+        <v>776</v>
       </c>
     </row>
     <row r="174" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C174" s="16" t="s">
-        <v>832</v>
+        <v>775</v>
       </c>
       <c r="D174" s="16"/>
       <c r="E174" s="16"/>
       <c r="F174" s="17" t="s">
-        <v>834</v>
+        <v>777</v>
       </c>
     </row>
     <row r="175" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C175" s="16" t="s">
-        <v>835</v>
+        <v>778</v>
       </c>
       <c r="D175" s="16"/>
       <c r="E175" s="16"/>
       <c r="F175" s="17" t="s">
-        <v>837</v>
+        <v>780</v>
       </c>
     </row>
     <row r="176" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C176" s="16" t="s">
-        <v>836</v>
+        <v>779</v>
       </c>
       <c r="D176" s="16"/>
       <c r="E176" s="16"/>
       <c r="F176" s="17" t="s">
-        <v>840</v>
+        <v>783</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C177" s="16" t="s">
-        <v>839</v>
+        <v>782</v>
       </c>
       <c r="D177" s="16"/>
       <c r="E177" s="16"/>
       <c r="F177" s="16" t="s">
-        <v>841</v>
+        <v>784</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C178" s="16" t="s">
-        <v>849</v>
+        <v>792</v>
       </c>
       <c r="D178" s="16"/>
       <c r="E178" s="16"/>
       <c r="F178" s="16" t="s">
-        <v>818</v>
+        <v>761</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C179" s="16" t="s">
-        <v>869</v>
+        <v>812</v>
       </c>
       <c r="D179" s="16"/>
       <c r="E179" s="16"/>
       <c r="F179" s="16" t="s">
-        <v>851</v>
+        <v>794</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C180" s="16" t="s">
-        <v>871</v>
+        <v>814</v>
       </c>
       <c r="D180" s="16"/>
       <c r="E180" s="16"/>
       <c r="F180" s="17" t="s">
-        <v>870</v>
+        <v>813</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C181" s="16" t="s">
-        <v>876</v>
+        <v>819</v>
       </c>
       <c r="D181" s="16"/>
       <c r="E181" s="16"/>
       <c r="F181" s="16" t="s">
-        <v>872</v>
+        <v>815</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C182" s="4" t="s">
-        <v>879</v>
+        <v>822</v>
       </c>
       <c r="F182" s="8" t="s">
-        <v>877</v>
+        <v>820</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C183" s="4" t="s">
-        <v>897</v>
+        <v>840</v>
       </c>
       <c r="F183" s="8" t="s">
-        <v>878</v>
+        <v>821</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C184" s="6" t="s">
-        <v>898</v>
+        <v>841</v>
       </c>
       <c r="F184" s="18" t="s">
-        <v>904</v>
+        <v>847</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C185" s="6" t="s">
-        <v>899</v>
+        <v>842</v>
       </c>
       <c r="F185" s="18" t="s">
-        <v>906</v>
+        <v>849</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C186" s="6" t="s">
-        <v>900</v>
+        <v>843</v>
       </c>
       <c r="F186" s="18" t="s">
-        <v>908</v>
+        <v>851</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C187" s="6" t="s">
-        <v>901</v>
+        <v>844</v>
       </c>
       <c r="F187" s="18" t="s">
-        <v>910</v>
+        <v>853</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C188" s="6" t="s">
-        <v>902</v>
+        <v>845</v>
       </c>
       <c r="F188" s="18" t="s">
-        <v>912</v>
+        <v>855</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C189" s="4" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.15">
@@ -6669,7 +6737,7 @@
     </row>
     <row r="194" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B194" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F194" s="4" t="s">
         <v>16</v>
@@ -6682,7 +6750,7 @@
     </row>
     <row r="196" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C196" s="4" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="F196" s="4" t="s">
         <v>17</v>
@@ -6693,21 +6761,21 @@
     </row>
     <row r="197" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C197" s="4" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="G197" s="4" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
     </row>
     <row r="198" spans="2:7" ht="24" x14ac:dyDescent="0.15">
       <c r="C198" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F198" s="8" t="s">
-        <v>566</v>
+        <v>547</v>
       </c>
       <c r="G198" s="4" t="s">
         <v>2</v>
@@ -6715,13 +6783,13 @@
     </row>
     <row r="199" spans="2:7" ht="24" x14ac:dyDescent="0.15">
       <c r="C199" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F199" s="4" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="G199" s="8" t="s">
-        <v>568</v>
+        <v>549</v>
       </c>
     </row>
     <row r="200" spans="2:7" x14ac:dyDescent="0.15">
@@ -6731,10 +6799,10 @@
     </row>
     <row r="201" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D201" s="4" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="F201" s="4" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="G201" s="4" t="s">
         <v>2</v>
@@ -6742,10 +6810,10 @@
     </row>
     <row r="202" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D202" s="4" t="s">
-        <v>213</v>
+        <v>897</v>
       </c>
       <c r="F202" s="4" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="G202" s="4" t="s">
         <v>2</v>
@@ -6753,10 +6821,10 @@
     </row>
     <row r="203" spans="2:7" ht="24" x14ac:dyDescent="0.15">
       <c r="D203" s="4" t="s">
-        <v>563</v>
+        <v>544</v>
       </c>
       <c r="F203" s="8" t="s">
-        <v>813</v>
+        <v>756</v>
       </c>
       <c r="G203" s="4" t="s">
         <v>124</v>
@@ -6764,7 +6832,7 @@
     </row>
     <row r="204" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D204" s="4" t="s">
-        <v>746</v>
+        <v>907</v>
       </c>
       <c r="F204" s="4" t="s">
         <v>89</v>
@@ -6779,132 +6847,132 @@
       </c>
     </row>
     <row r="206" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E206" s="4" t="s">
-        <v>774</v>
+      <c r="E206" s="22" t="s">
+        <v>895</v>
       </c>
       <c r="F206" s="4" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="G206" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="207" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E207" s="4" t="s">
-        <v>747</v>
+      <c r="E207" s="22" t="s">
+        <v>183</v>
       </c>
       <c r="F207" s="4" t="s">
-        <v>457</v>
+        <v>438</v>
       </c>
       <c r="G207" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="208" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E208" s="4" t="s">
-        <v>769</v>
+      <c r="E208" s="22" t="s">
+        <v>896</v>
       </c>
       <c r="F208" s="4" t="s">
-        <v>809</v>
+        <v>721</v>
       </c>
       <c r="G208" s="4" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="209" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E209" s="4" t="s">
-        <v>241</v>
+      <c r="E209" s="25" t="s">
+        <v>240</v>
       </c>
       <c r="F209" s="4" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="G209" s="4" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="210" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E210" s="4" t="s">
-        <v>749</v>
+      <c r="E210" s="25" t="s">
+        <v>902</v>
       </c>
       <c r="F210" s="4" t="s">
-        <v>690</v>
+        <v>901</v>
       </c>
       <c r="G210" s="4" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="211" spans="4:7" ht="24" x14ac:dyDescent="0.15">
-      <c r="E211" s="4" t="s">
-        <v>686</v>
+      <c r="E211" s="22" t="s">
+        <v>215</v>
       </c>
       <c r="F211" s="8" t="s">
-        <v>687</v>
+        <v>652</v>
       </c>
       <c r="G211" s="4" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="212" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E212" s="4" t="s">
-        <v>748</v>
+      <c r="E212" s="22" t="s">
+        <v>905</v>
       </c>
       <c r="F212" s="4" t="s">
-        <v>689</v>
+        <v>653</v>
       </c>
       <c r="G212" s="4" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="213" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E213" s="4" t="s">
-        <v>697</v>
+      <c r="E213" s="25" t="s">
+        <v>245</v>
       </c>
       <c r="F213" s="4" t="s">
-        <v>454</v>
+        <v>903</v>
       </c>
       <c r="G213" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="214" spans="4:7" ht="24" x14ac:dyDescent="0.15">
-      <c r="E214" s="4" t="s">
-        <v>220</v>
+      <c r="E214" s="24" t="s">
+        <v>217</v>
       </c>
       <c r="F214" s="8" t="s">
-        <v>695</v>
+        <v>657</v>
       </c>
       <c r="G214" s="4" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="215" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E215" s="4" t="s">
-        <v>221</v>
+      <c r="E215" s="22" t="s">
+        <v>899</v>
       </c>
       <c r="F215" s="4" t="s">
-        <v>456</v>
+        <v>414</v>
       </c>
       <c r="G215" s="4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="216" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E216" s="4" t="s">
-        <v>222</v>
+      <c r="E216" s="22" t="s">
+        <v>185</v>
       </c>
       <c r="F216" s="4" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G216" s="4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="217" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E217" s="4" t="s">
-        <v>223</v>
+      <c r="E217" s="22" t="s">
+        <v>900</v>
       </c>
       <c r="F217" s="4" t="s">
-        <v>436</v>
+        <v>898</v>
       </c>
       <c r="G217" s="4" t="s">
         <v>99</v>
@@ -6912,15 +6980,15 @@
     </row>
     <row r="218" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E218" s="4" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="219" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D219" s="4" t="s">
-        <v>215</v>
+        <v>908</v>
       </c>
       <c r="F219" s="4" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="G219" s="4" t="s">
         <v>102</v>
@@ -6932,74 +7000,74 @@
       </c>
     </row>
     <row r="221" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E221" s="4" t="s">
-        <v>770</v>
+      <c r="E221" s="22" t="s">
+        <v>719</v>
       </c>
       <c r="F221" s="4" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="G221" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="222" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E222" s="4" t="s">
-        <v>224</v>
+      <c r="E222" s="22" t="s">
+        <v>220</v>
       </c>
       <c r="F222" s="4" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
       <c r="G222" s="4" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="223" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E223" s="4" t="s">
-        <v>769</v>
+      <c r="E223" s="22" t="s">
+        <v>718</v>
       </c>
       <c r="F223" s="4" t="s">
-        <v>772</v>
+        <v>721</v>
       </c>
       <c r="G223" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="224" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E224" s="4" t="s">
-        <v>219</v>
+      <c r="E224" s="22" t="s">
+        <v>216</v>
       </c>
       <c r="F224" s="4" t="s">
-        <v>810</v>
+        <v>754</v>
       </c>
       <c r="G224" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="225" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E225" s="4" t="s">
-        <v>218</v>
+      <c r="E225" s="22" t="s">
+        <v>215</v>
       </c>
       <c r="F225" s="4" t="s">
-        <v>688</v>
+        <v>911</v>
       </c>
       <c r="G225" s="4" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="226" spans="4:7" ht="24" x14ac:dyDescent="0.15">
-      <c r="E226" s="4" t="s">
-        <v>225</v>
+      <c r="E226" s="24" t="s">
+        <v>217</v>
       </c>
       <c r="F226" s="8" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="G226" s="4" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="227" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E227" s="4" t="s">
-        <v>226</v>
+      <c r="E227" s="22" t="s">
+        <v>221</v>
       </c>
       <c r="F227" s="4" t="s">
         <v>22</v>
@@ -7009,8 +7077,8 @@
       </c>
     </row>
     <row r="228" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E228" s="4" t="s">
-        <v>233</v>
+      <c r="E228" s="22" t="s">
+        <v>228</v>
       </c>
       <c r="F228" s="4" t="s">
         <v>23</v>
@@ -7020,8 +7088,8 @@
       </c>
     </row>
     <row r="229" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E229" s="4" t="s">
-        <v>187</v>
+      <c r="E229" s="22" t="s">
+        <v>186</v>
       </c>
       <c r="F229" s="4" t="s">
         <v>24</v>
@@ -7032,146 +7100,146 @@
     </row>
     <row r="230" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E230" s="4" t="s">
-        <v>607</v>
+        <v>582</v>
       </c>
     </row>
     <row r="231" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D231" s="4" t="s">
-        <v>608</v>
+        <v>909</v>
       </c>
     </row>
     <row r="232" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E232" s="4" t="s">
-        <v>609</v>
+        <v>583</v>
       </c>
     </row>
     <row r="233" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E233" s="4" t="s">
-        <v>782</v>
+      <c r="E233" s="22" t="s">
+        <v>731</v>
       </c>
       <c r="F233" s="4" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="G233" s="4" t="s">
-        <v>610</v>
+        <v>584</v>
       </c>
     </row>
     <row r="234" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E234" s="4" t="s">
-        <v>217</v>
+      <c r="E234" s="22" t="s">
+        <v>214</v>
       </c>
       <c r="F234" s="4" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="G234" s="4" t="s">
-        <v>611</v>
+        <v>585</v>
       </c>
     </row>
     <row r="235" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E235" s="4" t="s">
-        <v>769</v>
+      <c r="E235" s="22" t="s">
+        <v>718</v>
       </c>
       <c r="F235" s="4" t="s">
-        <v>773</v>
+        <v>722</v>
       </c>
       <c r="G235" s="4" t="s">
-        <v>612</v>
+        <v>586</v>
       </c>
     </row>
     <row r="236" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E236" s="4" t="s">
-        <v>699</v>
+      <c r="E236" s="25" t="s">
+        <v>660</v>
       </c>
       <c r="F236" s="4" t="s">
-        <v>701</v>
+        <v>662</v>
       </c>
       <c r="G236" s="4" t="s">
-        <v>613</v>
+        <v>587</v>
       </c>
     </row>
     <row r="237" spans="4:7" ht="24" x14ac:dyDescent="0.15">
-      <c r="E237" s="4" t="s">
-        <v>707</v>
+      <c r="E237" s="22" t="s">
+        <v>668</v>
       </c>
       <c r="F237" s="8" t="s">
-        <v>691</v>
+        <v>654</v>
       </c>
       <c r="G237" s="4" t="s">
-        <v>613</v>
+        <v>587</v>
       </c>
     </row>
     <row r="238" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E238" s="4" t="s">
-        <v>627</v>
+      <c r="E238" s="25" t="s">
+        <v>598</v>
       </c>
       <c r="F238" s="8" t="s">
-        <v>692</v>
+        <v>655</v>
       </c>
       <c r="G238" s="4" t="s">
-        <v>613</v>
+        <v>587</v>
       </c>
     </row>
     <row r="239" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E239" s="4" t="s">
-        <v>696</v>
+      <c r="E239" s="22" t="s">
+        <v>658</v>
       </c>
       <c r="F239" s="8" t="s">
-        <v>615</v>
+        <v>589</v>
       </c>
       <c r="G239" s="4" t="s">
-        <v>613</v>
+        <v>587</v>
       </c>
     </row>
     <row r="240" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E240" s="4" t="s">
-        <v>708</v>
+      <c r="E240" s="25" t="s">
+        <v>669</v>
       </c>
       <c r="F240" s="8" t="s">
-        <v>698</v>
+        <v>659</v>
       </c>
       <c r="G240" s="4" t="s">
-        <v>613</v>
+        <v>587</v>
       </c>
     </row>
     <row r="241" spans="4:7" ht="24" x14ac:dyDescent="0.15">
-      <c r="E241" s="4" t="s">
-        <v>703</v>
+      <c r="E241" s="24" t="s">
+        <v>664</v>
       </c>
       <c r="F241" s="8" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="G241" s="4" t="s">
-        <v>610</v>
+        <v>584</v>
       </c>
     </row>
     <row r="242" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E242" s="4" t="s">
-        <v>221</v>
+      <c r="E242" s="22" t="s">
+        <v>218</v>
       </c>
       <c r="F242" s="4" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="G242" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="243" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E243" s="4" t="s">
-        <v>222</v>
+      <c r="E243" s="22" t="s">
+        <v>219</v>
       </c>
       <c r="F243" s="4" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="G243" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="244" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E244" s="4" t="s">
-        <v>187</v>
+      <c r="E244" s="22" t="s">
+        <v>186</v>
       </c>
       <c r="F244" s="4" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="G244" s="4" t="s">
         <v>97</v>
@@ -7179,146 +7247,146 @@
     </row>
     <row r="245" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E245" s="4" t="s">
-        <v>616</v>
+        <v>590</v>
       </c>
     </row>
     <row r="246" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D246" s="4" t="s">
-        <v>618</v>
+        <v>910</v>
       </c>
     </row>
     <row r="247" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E247" s="4" t="s">
-        <v>609</v>
+        <v>583</v>
       </c>
     </row>
     <row r="248" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E248" s="4" t="s">
-        <v>770</v>
+      <c r="E248" s="22" t="s">
+        <v>719</v>
       </c>
       <c r="F248" s="4" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="G248" s="4" t="s">
-        <v>619</v>
+        <v>592</v>
       </c>
     </row>
     <row r="249" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E249" s="4" t="s">
-        <v>217</v>
+      <c r="E249" s="22" t="s">
+        <v>214</v>
       </c>
       <c r="F249" s="4" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="G249" s="4" t="s">
-        <v>619</v>
+        <v>592</v>
       </c>
     </row>
     <row r="250" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E250" s="4" t="s">
-        <v>769</v>
+      <c r="E250" s="22" t="s">
+        <v>718</v>
       </c>
       <c r="F250" s="4" t="s">
-        <v>784</v>
+        <v>733</v>
       </c>
       <c r="G250" s="4" t="s">
-        <v>620</v>
+        <v>593</v>
       </c>
     </row>
     <row r="251" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E251" s="4" t="s">
-        <v>700</v>
+      <c r="E251" s="25" t="s">
+        <v>661</v>
       </c>
       <c r="F251" s="4" t="s">
-        <v>702</v>
+        <v>663</v>
       </c>
       <c r="G251" s="4" t="s">
-        <v>621</v>
+        <v>594</v>
       </c>
     </row>
     <row r="252" spans="4:7" ht="24" x14ac:dyDescent="0.15">
-      <c r="E252" s="4" t="s">
-        <v>707</v>
+      <c r="E252" s="22" t="s">
+        <v>678</v>
       </c>
       <c r="F252" s="8" t="s">
-        <v>625</v>
+        <v>906</v>
       </c>
       <c r="G252" s="4" t="s">
-        <v>622</v>
+        <v>595</v>
       </c>
     </row>
     <row r="253" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E253" s="4" t="s">
-        <v>627</v>
+      <c r="E253" s="25" t="s">
+        <v>598</v>
       </c>
       <c r="F253" s="8" t="s">
-        <v>614</v>
+        <v>588</v>
       </c>
       <c r="G253" s="4" t="s">
-        <v>621</v>
+        <v>594</v>
       </c>
     </row>
     <row r="254" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E254" s="4" t="s">
-        <v>705</v>
+      <c r="E254" s="22" t="s">
+        <v>666</v>
       </c>
       <c r="F254" s="8" t="s">
-        <v>615</v>
+        <v>589</v>
       </c>
       <c r="G254" s="4" t="s">
-        <v>621</v>
+        <v>594</v>
       </c>
     </row>
     <row r="255" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E255" s="4" t="s">
-        <v>694</v>
+      <c r="E255" s="25" t="s">
+        <v>656</v>
       </c>
       <c r="F255" s="8" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="G255" s="4" t="s">
-        <v>623</v>
+        <v>596</v>
       </c>
     </row>
     <row r="256" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E256" s="4" t="s">
-        <v>706</v>
+      <c r="E256" s="27" t="s">
+        <v>667</v>
       </c>
       <c r="F256" s="8" t="s">
-        <v>626</v>
+        <v>904</v>
       </c>
       <c r="G256" s="4" t="s">
-        <v>624</v>
+        <v>597</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="E257" s="4" t="s">
-        <v>704</v>
+      <c r="E257" s="22" t="s">
+        <v>665</v>
       </c>
       <c r="F257" s="4" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="G257" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="E258" s="4" t="s">
-        <v>222</v>
+      <c r="E258" s="22" t="s">
+        <v>219</v>
       </c>
       <c r="F258" s="4" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="G258" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="E259" s="4" t="s">
-        <v>187</v>
+      <c r="E259" s="22" t="s">
+        <v>186</v>
       </c>
       <c r="F259" s="4" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="G259" s="4" t="s">
         <v>97</v>
@@ -7326,17 +7394,17 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E260" s="4" t="s">
-        <v>617</v>
+        <v>591</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D261" s="4" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C262" s="4" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.15">
@@ -7359,7 +7427,7 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B267" s="4" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F267" s="4" t="s">
         <v>16</v>
@@ -7372,7 +7440,7 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C269" s="4" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="F269" s="4" t="s">
         <v>17</v>
@@ -7383,21 +7451,21 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C270" s="4" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="F270" s="4" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="G270" s="4" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
     </row>
     <row r="271" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="C271" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F271" s="8" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="G271" s="4" t="s">
         <v>2</v>
@@ -7405,13 +7473,13 @@
     </row>
     <row r="272" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="C272" s="4" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F272" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G272" s="8" t="s">
-        <v>567</v>
+        <v>548</v>
       </c>
     </row>
     <row r="273" spans="3:7" x14ac:dyDescent="0.15">
@@ -7421,10 +7489,10 @@
     </row>
     <row r="274" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D274" s="4" t="s">
-        <v>783</v>
+        <v>732</v>
       </c>
       <c r="F274" s="4" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="G274" s="4" t="s">
         <v>2</v>
@@ -7432,10 +7500,10 @@
     </row>
     <row r="275" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D275" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F275" s="4" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="G275" s="4" t="s">
         <v>2</v>
@@ -7443,10 +7511,10 @@
     </row>
     <row r="276" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D276" s="4" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F276" s="4" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="G276" s="4" t="s">
         <v>2</v>
@@ -7454,10 +7522,10 @@
     </row>
     <row r="277" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D277" s="4" t="s">
-        <v>805</v>
+        <v>750</v>
       </c>
       <c r="F277" s="4" t="s">
-        <v>785</v>
+        <v>734</v>
       </c>
       <c r="G277" s="4" t="s">
         <v>2</v>
@@ -7465,10 +7533,10 @@
     </row>
     <row r="278" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D278" s="4" t="s">
-        <v>771</v>
+        <v>720</v>
       </c>
       <c r="F278" s="4" t="s">
-        <v>786</v>
+        <v>735</v>
       </c>
       <c r="G278" s="4" t="s">
         <v>2</v>
@@ -7476,10 +7544,10 @@
     </row>
     <row r="279" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D279" s="4" t="s">
-        <v>787</v>
+        <v>736</v>
       </c>
       <c r="F279" s="4" t="s">
-        <v>497</v>
+        <v>478</v>
       </c>
       <c r="G279" s="4" t="s">
         <v>2</v>
@@ -7487,18 +7555,18 @@
     </row>
     <row r="280" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D280" s="4" t="s">
-        <v>788</v>
+        <v>737</v>
       </c>
       <c r="F280" s="4" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="G280" s="21" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
     </row>
     <row r="281" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D281" s="4" t="s">
-        <v>777</v>
+        <v>726</v>
       </c>
       <c r="F281" s="4" t="s">
         <v>20</v>
@@ -7507,16 +7575,16 @@
     </row>
     <row r="282" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D282" s="4" t="s">
-        <v>789</v>
+        <v>738</v>
       </c>
       <c r="F282" s="4" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="G282" s="21"/>
     </row>
     <row r="283" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D283" s="4" t="s">
-        <v>790</v>
+        <v>739</v>
       </c>
       <c r="F283" s="4" t="s">
         <v>21</v>
@@ -7525,27 +7593,27 @@
     </row>
     <row r="284" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D284" s="4" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F284" s="4" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="G284" s="21" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
     </row>
     <row r="285" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D285" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F285" s="4" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="G285" s="21"/>
     </row>
     <row r="286" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D286" s="4" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F286" s="4" t="s">
         <v>24</v>
@@ -7582,7 +7650,7 @@
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B293" s="4" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F293" s="4" t="s">
         <v>16</v>
@@ -7595,7 +7663,7 @@
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C295" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="F295" s="4" t="s">
         <v>17</v>
@@ -7606,21 +7674,21 @@
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C296" s="4" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="F296" s="4" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="G296" s="4" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
     </row>
     <row r="297" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="C297" s="4" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F297" s="8" t="s">
-        <v>565</v>
+        <v>546</v>
       </c>
       <c r="G297" s="4" t="s">
         <v>2</v>
@@ -7628,13 +7696,13 @@
     </row>
     <row r="298" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="C298" s="4" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F298" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G298" s="8" t="s">
-        <v>569</v>
+        <v>550</v>
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.15">
@@ -7644,10 +7712,10 @@
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D300" s="4" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F300" s="4" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="G300" s="4" t="s">
         <v>2</v>
@@ -7656,10 +7724,10 @@
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D301" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F301" s="4" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="G301" s="4" t="s">
         <v>2</v>
@@ -7668,10 +7736,10 @@
     </row>
     <row r="302" spans="1:8" ht="36" x14ac:dyDescent="0.15">
       <c r="D302" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F302" s="8" t="s">
-        <v>812</v>
+        <v>755</v>
       </c>
       <c r="G302" s="4" t="s">
         <v>124</v>
@@ -7680,7 +7748,7 @@
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D303" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F303" s="4" t="s">
         <v>125</v>
@@ -7697,136 +7765,136 @@
       <c r="H304" s="10"/>
     </row>
     <row r="305" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="E305" s="4" t="s">
-        <v>774</v>
+      <c r="E305" s="22" t="s">
+        <v>719</v>
       </c>
       <c r="F305" s="4" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="G305" s="4" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="H305" s="10"/>
     </row>
     <row r="306" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="E306" s="4" t="s">
-        <v>184</v>
+      <c r="E306" s="22" t="s">
+        <v>183</v>
       </c>
       <c r="F306" s="4" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="G306" s="4" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="H306" s="10"/>
     </row>
     <row r="307" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="E307" s="4" t="s">
-        <v>769</v>
+      <c r="E307" s="22" t="s">
+        <v>718</v>
       </c>
       <c r="F307" s="4" t="s">
-        <v>773</v>
+        <v>722</v>
       </c>
       <c r="G307" s="4" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="H307" s="10"/>
     </row>
     <row r="308" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="E308" s="4" t="s">
-        <v>241</v>
+      <c r="E308" s="22" t="s">
+        <v>236</v>
       </c>
       <c r="F308" s="4" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="G308" s="4" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="H308" s="10"/>
     </row>
     <row r="309" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="E309" s="4" t="s">
-        <v>242</v>
+      <c r="E309" s="22" t="s">
+        <v>237</v>
       </c>
       <c r="F309" s="4" t="s">
-        <v>714</v>
+        <v>673</v>
       </c>
       <c r="G309" s="4" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
     </row>
     <row r="310" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="E310" s="4" t="s">
-        <v>243</v>
+      <c r="E310" s="22" t="s">
+        <v>238</v>
       </c>
       <c r="F310" s="4" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="G310" s="4" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
     </row>
     <row r="311" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="E311" s="4" t="s">
-        <v>750</v>
+      <c r="E311" s="26" t="s">
+        <v>949</v>
       </c>
       <c r="F311" s="4" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="G311" s="4" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
     </row>
     <row r="312" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="E312" s="4" t="s">
-        <v>751</v>
+      <c r="E312" s="22" t="s">
+        <v>701</v>
       </c>
       <c r="F312" s="4" t="s">
-        <v>737</v>
+        <v>693</v>
       </c>
       <c r="G312" s="4" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
     </row>
     <row r="313" spans="4:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="E313" s="4" t="s">
-        <v>752</v>
+      <c r="E313" s="22" t="s">
+        <v>702</v>
       </c>
       <c r="F313" s="8" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="G313" s="4" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
     </row>
     <row r="314" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="E314" s="4" t="s">
-        <v>753</v>
+      <c r="E314" s="22" t="s">
+        <v>703</v>
       </c>
       <c r="F314" s="4" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="G314" s="4" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="315" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="E315" s="4" t="s">
-        <v>186</v>
+      <c r="E315" s="22" t="s">
+        <v>185</v>
       </c>
       <c r="F315" s="4" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="G315" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="316" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="E316" s="4" t="s">
-        <v>187</v>
+      <c r="E316" s="22" t="s">
+        <v>186</v>
       </c>
       <c r="F316" s="4" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="G316" s="4" t="s">
         <v>118</v>
@@ -7839,7 +7907,7 @@
     </row>
     <row r="318" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D318" s="4" t="s">
-        <v>628</v>
+        <v>935</v>
       </c>
       <c r="F318" s="4" t="s">
         <v>127</v>
@@ -7854,143 +7922,143 @@
       </c>
     </row>
     <row r="320" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="E320" s="4" t="s">
-        <v>774</v>
+      <c r="E320" s="22" t="s">
+        <v>723</v>
       </c>
       <c r="F320" s="4" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="G320" s="4" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="321" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E321" s="4" t="s">
-        <v>184</v>
+      <c r="E321" s="22" t="s">
+        <v>183</v>
       </c>
       <c r="F321" s="4" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="G321" s="4" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="322" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E322" s="4" t="s">
-        <v>769</v>
+      <c r="E322" s="22" t="s">
+        <v>718</v>
       </c>
       <c r="F322" s="4" t="s">
-        <v>773</v>
+        <v>722</v>
       </c>
       <c r="G322" s="4" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="323" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E323" s="4" t="s">
-        <v>245</v>
+      <c r="E323" s="22" t="s">
+        <v>240</v>
       </c>
       <c r="F323" s="4" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="G323" s="4" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="324" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E324" s="4" t="s">
-        <v>246</v>
+      <c r="E324" s="22" t="s">
+        <v>241</v>
       </c>
       <c r="F324" s="4" t="s">
-        <v>713</v>
+        <v>672</v>
       </c>
       <c r="G324" s="4" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="325" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E325" s="4" t="s">
-        <v>247</v>
+      <c r="E325" s="22" t="s">
+        <v>242</v>
       </c>
       <c r="F325" s="4" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="G325" s="4" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="326" spans="4:7" ht="24" x14ac:dyDescent="0.15">
-      <c r="E326" s="4" t="s">
-        <v>754</v>
+      <c r="E326" s="28" t="s">
+        <v>951</v>
       </c>
       <c r="F326" s="8" t="s">
-        <v>718</v>
+        <v>677</v>
       </c>
       <c r="G326" s="4" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="327" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E327" s="4" t="s">
-        <v>244</v>
+      <c r="E327" s="22" t="s">
+        <v>239</v>
       </c>
       <c r="F327" s="4" t="s">
-        <v>729</v>
+        <v>687</v>
       </c>
       <c r="G327" s="4" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="328" spans="4:7" ht="24" x14ac:dyDescent="0.15">
-      <c r="E328" s="4" t="s">
-        <v>248</v>
+      <c r="E328" s="22" t="s">
+        <v>243</v>
       </c>
       <c r="F328" s="8" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="G328" s="4" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="329" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E329" s="4" t="s">
-        <v>251</v>
+      <c r="E329" s="23" t="s">
+        <v>245</v>
       </c>
       <c r="F329" s="4" t="s">
-        <v>693</v>
+        <v>950</v>
       </c>
       <c r="G329" s="4" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="330" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E330" s="4" t="s">
-        <v>252</v>
+      <c r="E330" s="22" t="s">
+        <v>246</v>
       </c>
       <c r="F330" s="4" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="G330" s="4" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="331" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E331" s="4" t="s">
-        <v>186</v>
+      <c r="E331" s="22" t="s">
+        <v>185</v>
       </c>
       <c r="F331" s="4" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="G331" s="4" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="332" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E332" s="4" t="s">
-        <v>229</v>
+      <c r="E332" s="22" t="s">
+        <v>224</v>
       </c>
       <c r="F332" s="4" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="G332" s="4" t="s">
         <v>118</v>
@@ -7998,12 +8066,12 @@
     </row>
     <row r="333" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E333" s="4" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
     </row>
     <row r="334" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D334" s="4" t="s">
-        <v>250</v>
+        <v>936</v>
       </c>
       <c r="F334" s="4" t="s">
         <v>128</v>
@@ -8018,143 +8086,143 @@
       </c>
     </row>
     <row r="336" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E336" s="4" t="s">
-        <v>774</v>
+      <c r="E336" s="22" t="s">
+        <v>723</v>
       </c>
       <c r="F336" s="4" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="G336" s="4" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="337" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E337" s="4" t="s">
-        <v>184</v>
+      <c r="E337" s="22" t="s">
+        <v>183</v>
       </c>
       <c r="F337" s="4" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="G337" s="4" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="338" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E338" s="4" t="s">
-        <v>794</v>
+      <c r="E338" s="22" t="s">
+        <v>742</v>
       </c>
       <c r="F338" s="4" t="s">
-        <v>792</v>
+        <v>740</v>
       </c>
       <c r="G338" s="4" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="339" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E339" s="4" t="s">
-        <v>253</v>
+      <c r="E339" s="22" t="s">
+        <v>247</v>
       </c>
       <c r="F339" s="4" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="G339" s="4" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="340" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E340" s="4" t="s">
-        <v>254</v>
+      <c r="E340" s="22" t="s">
+        <v>248</v>
       </c>
       <c r="F340" s="4" t="s">
-        <v>712</v>
+        <v>671</v>
       </c>
       <c r="G340" s="4" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="341" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E341" s="4" t="s">
-        <v>255</v>
+      <c r="E341" s="22" t="s">
+        <v>249</v>
       </c>
       <c r="F341" s="4" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="G341" s="4" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="342" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E342" s="4" t="s">
-        <v>256</v>
+      <c r="E342" s="22" t="s">
+        <v>250</v>
       </c>
       <c r="F342" s="4" t="s">
-        <v>736</v>
+        <v>692</v>
       </c>
       <c r="G342" s="4" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="343" spans="4:7" ht="24" x14ac:dyDescent="0.15">
-      <c r="E343" s="4" t="s">
-        <v>249</v>
+      <c r="E343" s="22" t="s">
+        <v>244</v>
       </c>
       <c r="F343" s="8" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="G343" s="4" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="344" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E344" s="4" t="s">
-        <v>674</v>
+      <c r="E344" s="29" t="s">
+        <v>642</v>
       </c>
       <c r="F344" s="4" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="G344" s="4" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="345" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E345" s="4" t="s">
-        <v>755</v>
+      <c r="E345" s="29" t="s">
+        <v>704</v>
       </c>
       <c r="F345" s="4" t="s">
-        <v>668</v>
+        <v>636</v>
       </c>
       <c r="G345" s="4" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
     </row>
     <row r="346" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E346" s="4" t="s">
-        <v>257</v>
+      <c r="E346" s="22" t="s">
+        <v>251</v>
       </c>
       <c r="F346" s="4" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="G346" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="347" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E347" s="4" t="s">
-        <v>237</v>
+      <c r="E347" s="22" t="s">
+        <v>232</v>
       </c>
       <c r="F347" s="4" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="G347" s="4" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="348" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E348" s="4" t="s">
-        <v>258</v>
+      <c r="E348" s="22" t="s">
+        <v>252</v>
       </c>
       <c r="F348" s="4" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="G348" s="4" t="s">
         <v>118</v>
@@ -8162,12 +8230,12 @@
     </row>
     <row r="349" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E349" s="4" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="350" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D350" s="4" t="s">
-        <v>643</v>
+        <v>613</v>
       </c>
       <c r="F350" s="4" t="s">
         <v>129</v>
@@ -8182,110 +8250,110 @@
       </c>
     </row>
     <row r="352" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E352" s="4" t="s">
-        <v>791</v>
+      <c r="E352" s="22" t="s">
+        <v>937</v>
       </c>
       <c r="F352" s="4" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="G352" s="4" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="353" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E353" s="4" t="s">
-        <v>259</v>
+      <c r="E353" s="22" t="s">
+        <v>939</v>
       </c>
       <c r="F353" s="4" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="G353" s="4" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="354" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E354" s="4" t="s">
-        <v>800</v>
+      <c r="E354" s="22" t="s">
+        <v>940</v>
       </c>
       <c r="F354" s="4" t="s">
-        <v>797</v>
+        <v>745</v>
       </c>
       <c r="G354" s="4" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="355" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E355" s="4" t="s">
-        <v>260</v>
+      <c r="E355" s="22" t="s">
+        <v>254</v>
       </c>
       <c r="F355" s="4" t="s">
-        <v>440</v>
+        <v>941</v>
       </c>
       <c r="G355" s="4" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="356" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E356" s="4" t="s">
-        <v>709</v>
+      <c r="E356" s="22" t="s">
+        <v>938</v>
       </c>
       <c r="F356" s="4" t="s">
-        <v>711</v>
+        <v>942</v>
       </c>
       <c r="G356" s="4" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="357" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E357" s="4" t="s">
-        <v>261</v>
+      <c r="E357" s="22" t="s">
+        <v>944</v>
       </c>
       <c r="F357" s="4" t="s">
-        <v>380</v>
+        <v>943</v>
       </c>
       <c r="G357" s="4" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="358" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E358" s="4" t="s">
-        <v>262</v>
+      <c r="E358" s="22" t="s">
+        <v>945</v>
       </c>
       <c r="F358" s="4" t="s">
-        <v>731</v>
+        <v>946</v>
       </c>
       <c r="G358" s="4" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="359" spans="5:7" ht="24" x14ac:dyDescent="0.15">
-      <c r="E359" s="4" t="s">
-        <v>263</v>
+      <c r="E359" s="22" t="s">
+        <v>948</v>
       </c>
       <c r="F359" s="8" t="s">
-        <v>382</v>
+        <v>947</v>
       </c>
       <c r="G359" s="4" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="360" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E360" s="4" t="s">
-        <v>264</v>
+      <c r="E360" s="29" t="s">
+        <v>255</v>
       </c>
       <c r="F360" s="4" t="s">
-        <v>388</v>
+        <v>952</v>
       </c>
       <c r="G360" s="4" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="361" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E361" s="4" t="s">
-        <v>719</v>
+      <c r="E361" s="29" t="s">
+        <v>953</v>
       </c>
       <c r="F361" s="4" t="s">
-        <v>387</v>
+        <v>954</v>
       </c>
       <c r="G361" s="4" t="s">
         <v>113</v>
@@ -8293,10 +8361,10 @@
     </row>
     <row r="362" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E362" s="4" t="s">
-        <v>793</v>
+        <v>741</v>
       </c>
       <c r="F362" s="4" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="G362" s="4" t="s">
         <v>121</v>
@@ -8304,10 +8372,10 @@
     </row>
     <row r="363" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E363" s="4" t="s">
-        <v>795</v>
+        <v>743</v>
       </c>
       <c r="F363" s="4" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="G363" s="4" t="s">
         <v>114</v>
@@ -8315,10 +8383,10 @@
     </row>
     <row r="364" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E364" s="4" t="s">
-        <v>796</v>
+        <v>744</v>
       </c>
       <c r="F364" s="4" t="s">
-        <v>798</v>
+        <v>746</v>
       </c>
       <c r="G364" s="4" t="s">
         <v>121</v>
@@ -8326,10 +8394,10 @@
     </row>
     <row r="365" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E365" s="4" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="F365" s="4" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="G365" s="4" t="s">
         <v>121</v>
@@ -8337,10 +8405,10 @@
     </row>
     <row r="366" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E366" s="4" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="F366" s="4" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="G366" s="4" t="s">
         <v>121</v>
@@ -8348,10 +8416,10 @@
     </row>
     <row r="367" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E367" s="4" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="F367" s="4" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="G367" s="4" t="s">
         <v>113</v>
@@ -8359,10 +8427,10 @@
     </row>
     <row r="368" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E368" s="4" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="F368" s="4" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="G368" s="4" t="s">
         <v>121</v>
@@ -8370,43 +8438,43 @@
     </row>
     <row r="369" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E369" s="4" t="s">
-        <v>669</v>
+        <v>637</v>
       </c>
       <c r="F369" s="4" t="s">
-        <v>667</v>
+        <v>635</v>
       </c>
       <c r="G369" s="4" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="370" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E370" s="4" t="s">
-        <v>269</v>
+      <c r="E370" s="22" t="s">
+        <v>260</v>
       </c>
       <c r="F370" s="4" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="G370" s="4" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="371" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E371" s="4" t="s">
-        <v>270</v>
+      <c r="E371" s="22" t="s">
+        <v>261</v>
       </c>
       <c r="F371" s="4" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="G371" s="4" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="372" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E372" s="4" t="s">
-        <v>321</v>
+      <c r="E372" s="22" t="s">
+        <v>310</v>
       </c>
       <c r="F372" s="4" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="G372" s="4" t="s">
         <v>130</v>
@@ -8414,10 +8482,10 @@
     </row>
     <row r="373" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E373" s="4" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="F373" s="4" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="G373" s="4" t="s">
         <v>131</v>
@@ -8425,10 +8493,10 @@
     </row>
     <row r="374" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E374" s="4" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="F374" s="4" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="G374" s="4" t="s">
         <v>131</v>
@@ -8436,10 +8504,10 @@
     </row>
     <row r="375" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E375" s="4" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="F375" s="4" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="G375" s="4" t="s">
         <v>131</v>
@@ -8452,160 +8520,160 @@
     </row>
     <row r="377" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D377" s="4" t="s">
-        <v>811</v>
+        <v>934</v>
       </c>
       <c r="F377" s="4" t="s">
-        <v>641</v>
+        <v>611</v>
       </c>
       <c r="G377" s="4" t="s">
-        <v>644</v>
+        <v>614</v>
       </c>
     </row>
     <row r="378" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E378" s="4" t="s">
-        <v>595</v>
+        <v>575</v>
       </c>
     </row>
     <row r="379" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E379" s="4" t="s">
-        <v>658</v>
+        <v>929</v>
       </c>
       <c r="F379" s="4" t="s">
-        <v>646</v>
+        <v>930</v>
       </c>
       <c r="G379" s="4" t="s">
-        <v>631</v>
+        <v>601</v>
       </c>
     </row>
     <row r="380" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E380" s="4" t="s">
-        <v>671</v>
+        <v>639</v>
       </c>
       <c r="F380" s="4" t="s">
-        <v>733</v>
+        <v>931</v>
       </c>
     </row>
     <row r="381" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E381" s="4" t="s">
-        <v>629</v>
+        <v>599</v>
       </c>
     </row>
     <row r="382" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E382" s="4" t="s">
-        <v>770</v>
+        <v>719</v>
       </c>
       <c r="F382" s="4" t="s">
-        <v>630</v>
+        <v>600</v>
       </c>
       <c r="G382" s="4" t="s">
-        <v>631</v>
+        <v>601</v>
       </c>
     </row>
     <row r="383" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E383" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F383" s="4" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="G383" s="4" t="s">
-        <v>632</v>
+        <v>602</v>
       </c>
     </row>
     <row r="384" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E384" s="4" t="s">
-        <v>769</v>
+        <v>718</v>
       </c>
       <c r="F384" s="4" t="s">
-        <v>792</v>
+        <v>740</v>
       </c>
       <c r="G384" s="4" t="s">
-        <v>632</v>
+        <v>602</v>
       </c>
     </row>
     <row r="385" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E385" s="4" t="s">
-        <v>685</v>
+        <v>651</v>
       </c>
       <c r="F385" s="4" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="G385" s="4" t="s">
-        <v>634</v>
+        <v>604</v>
       </c>
     </row>
     <row r="386" spans="4:7" ht="24" x14ac:dyDescent="0.15">
       <c r="E386" s="4" t="s">
-        <v>707</v>
+        <v>668</v>
       </c>
       <c r="F386" s="8" t="s">
-        <v>715</v>
+        <v>674</v>
       </c>
       <c r="G386" s="4" t="s">
-        <v>635</v>
+        <v>605</v>
       </c>
     </row>
     <row r="387" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E387" s="4" t="s">
-        <v>627</v>
+        <v>598</v>
       </c>
       <c r="F387" s="8" t="s">
-        <v>710</v>
+        <v>670</v>
       </c>
       <c r="G387" s="4" t="s">
-        <v>636</v>
+        <v>606</v>
       </c>
     </row>
     <row r="388" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E388" s="4" t="s">
-        <v>721</v>
+        <v>679</v>
       </c>
       <c r="F388" s="8" t="s">
-        <v>672</v>
+        <v>640</v>
       </c>
       <c r="G388" s="4" t="s">
-        <v>634</v>
+        <v>604</v>
       </c>
     </row>
     <row r="389" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E389" s="4" t="s">
-        <v>726</v>
+        <v>684</v>
       </c>
       <c r="F389" s="4" t="s">
-        <v>727</v>
+        <v>685</v>
       </c>
       <c r="G389" s="4" t="s">
-        <v>639</v>
+        <v>609</v>
       </c>
     </row>
     <row r="390" spans="4:7" ht="24" x14ac:dyDescent="0.15">
       <c r="E390" s="4" t="s">
-        <v>717</v>
+        <v>676</v>
       </c>
       <c r="F390" s="8" t="s">
-        <v>638</v>
+        <v>608</v>
       </c>
       <c r="G390" s="4" t="s">
-        <v>640</v>
+        <v>610</v>
       </c>
     </row>
     <row r="391" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E391" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="F391" s="4" t="s">
         <v>694</v>
       </c>
-      <c r="F391" s="4" t="s">
-        <v>738</v>
-      </c>
       <c r="G391" s="4" t="s">
-        <v>640</v>
+        <v>610</v>
       </c>
     </row>
     <row r="392" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E392" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F392" s="4" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="G392" s="4" t="s">
         <v>97</v>
@@ -8613,10 +8681,10 @@
     </row>
     <row r="393" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E393" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F393" s="4" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="G393" s="4" t="s">
         <v>97</v>
@@ -8624,10 +8692,10 @@
     </row>
     <row r="394" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E394" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F394" s="4" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="G394" s="4" t="s">
         <v>97</v>
@@ -8635,47 +8703,47 @@
     </row>
     <row r="395" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E395" s="4" t="s">
-        <v>633</v>
+        <v>603</v>
       </c>
     </row>
     <row r="396" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E396" s="4" t="s">
-        <v>642</v>
+        <v>612</v>
       </c>
     </row>
     <row r="397" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D397" s="4" t="s">
-        <v>656</v>
+        <v>626</v>
       </c>
       <c r="F397" s="4" t="s">
-        <v>677</v>
+        <v>932</v>
       </c>
       <c r="G397" s="4" t="s">
-        <v>645</v>
+        <v>615</v>
       </c>
     </row>
     <row r="398" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E398" s="4" t="s">
-        <v>647</v>
+        <v>617</v>
       </c>
     </row>
     <row r="399" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E399" s="4" t="s">
-        <v>659</v>
+        <v>627</v>
       </c>
       <c r="F399" s="4" t="s">
-        <v>646</v>
+        <v>616</v>
       </c>
       <c r="G399" s="4" t="s">
-        <v>648</v>
+        <v>618</v>
       </c>
     </row>
     <row r="400" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E400" s="4" t="s">
-        <v>657</v>
+        <v>933</v>
       </c>
       <c r="F400" s="4" t="s">
-        <v>732</v>
+        <v>689</v>
       </c>
     </row>
     <row r="401" spans="5:7" x14ac:dyDescent="0.15">
@@ -8685,169 +8753,169 @@
     </row>
     <row r="402" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E402" s="4" t="s">
-        <v>774</v>
+        <v>723</v>
       </c>
       <c r="F402" s="4" t="s">
-        <v>630</v>
+        <v>600</v>
       </c>
       <c r="G402" s="4" t="s">
-        <v>648</v>
+        <v>618</v>
       </c>
     </row>
     <row r="403" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E403" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F403" s="4" t="s">
-        <v>661</v>
+        <v>629</v>
       </c>
       <c r="G403" s="4" t="s">
-        <v>648</v>
+        <v>618</v>
       </c>
     </row>
     <row r="404" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E404" s="4" t="s">
-        <v>769</v>
+        <v>718</v>
       </c>
       <c r="F404" s="4" t="s">
-        <v>799</v>
+        <v>747</v>
       </c>
       <c r="G404" s="4" t="s">
-        <v>648</v>
+        <v>618</v>
       </c>
     </row>
     <row r="405" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E405" s="4" t="s">
-        <v>685</v>
+        <v>651</v>
       </c>
       <c r="F405" s="4" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="G405" s="4" t="s">
-        <v>648</v>
+        <v>618</v>
       </c>
     </row>
     <row r="406" spans="5:7" ht="24" x14ac:dyDescent="0.15">
       <c r="E406" s="4" t="s">
-        <v>720</v>
+        <v>678</v>
       </c>
       <c r="F406" s="8" t="s">
-        <v>637</v>
+        <v>607</v>
       </c>
       <c r="G406" s="4" t="s">
-        <v>648</v>
+        <v>618</v>
       </c>
     </row>
     <row r="407" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E407" s="4" t="s">
-        <v>627</v>
+        <v>598</v>
       </c>
       <c r="F407" s="8" t="s">
-        <v>614</v>
+        <v>588</v>
       </c>
       <c r="G407" s="4" t="s">
-        <v>648</v>
+        <v>618</v>
       </c>
     </row>
     <row r="408" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E408" s="4" t="s">
-        <v>722</v>
+        <v>680</v>
       </c>
       <c r="F408" s="8" t="s">
-        <v>615</v>
+        <v>589</v>
       </c>
       <c r="G408" s="4" t="s">
-        <v>648</v>
+        <v>618</v>
       </c>
     </row>
     <row r="409" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E409" s="4" t="s">
-        <v>716</v>
+        <v>675</v>
       </c>
       <c r="F409" s="4" t="s">
-        <v>729</v>
+        <v>687</v>
       </c>
       <c r="G409" s="4" t="s">
-        <v>651</v>
+        <v>621</v>
       </c>
     </row>
     <row r="410" spans="5:7" ht="24" x14ac:dyDescent="0.15">
       <c r="E410" s="4" t="s">
-        <v>724</v>
+        <v>682</v>
       </c>
       <c r="F410" s="8" t="s">
-        <v>638</v>
+        <v>608</v>
       </c>
       <c r="G410" s="4" t="s">
-        <v>652</v>
+        <v>622</v>
       </c>
     </row>
     <row r="411" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E411" s="4" t="s">
-        <v>739</v>
+        <v>695</v>
       </c>
       <c r="F411" s="4" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="G411" s="4" t="s">
-        <v>653</v>
+        <v>623</v>
       </c>
     </row>
     <row r="412" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E412" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F412" s="4" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="G412" s="4" t="s">
-        <v>654</v>
+        <v>624</v>
       </c>
     </row>
     <row r="413" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E413" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F413" s="4" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="G413" s="4" t="s">
-        <v>653</v>
+        <v>623</v>
       </c>
     </row>
     <row r="414" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E414" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F414" s="4" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="G414" s="4" t="s">
-        <v>655</v>
+        <v>625</v>
       </c>
     </row>
     <row r="415" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E415" s="4" t="s">
-        <v>650</v>
+        <v>620</v>
       </c>
     </row>
     <row r="416" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E416" s="4" t="s">
-        <v>678</v>
+        <v>645</v>
       </c>
       <c r="F416" s="4" t="s">
-        <v>734</v>
+        <v>690</v>
       </c>
       <c r="G416" s="4" t="s">
-        <v>648</v>
+        <v>618</v>
       </c>
     </row>
     <row r="417" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E417" s="4" t="s">
-        <v>679</v>
+        <v>646</v>
       </c>
       <c r="F417" s="4" t="s">
-        <v>735</v>
+        <v>691</v>
       </c>
     </row>
     <row r="418" spans="3:7" x14ac:dyDescent="0.15">
@@ -8857,122 +8925,122 @@
     </row>
     <row r="419" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E419" s="4" t="s">
-        <v>806</v>
+        <v>751</v>
       </c>
       <c r="F419" s="4" t="s">
-        <v>660</v>
+        <v>628</v>
       </c>
       <c r="G419" s="4" t="s">
-        <v>648</v>
+        <v>618</v>
       </c>
     </row>
     <row r="420" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E420" s="4" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F420" s="4" t="s">
-        <v>662</v>
+        <v>630</v>
       </c>
       <c r="G420" s="4" t="s">
-        <v>648</v>
+        <v>618</v>
       </c>
     </row>
     <row r="421" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E421" s="4" t="s">
-        <v>801</v>
+        <v>748</v>
       </c>
       <c r="F421" s="4" t="s">
-        <v>803</v>
+        <v>749</v>
       </c>
       <c r="G421" s="4" t="s">
-        <v>648</v>
+        <v>618</v>
       </c>
     </row>
     <row r="422" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E422" s="4" t="s">
-        <v>685</v>
+        <v>651</v>
       </c>
       <c r="F422" s="4" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="G422" s="4" t="s">
-        <v>648</v>
+        <v>618</v>
       </c>
     </row>
     <row r="423" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E423" s="4" t="s">
-        <v>664</v>
+        <v>632</v>
       </c>
       <c r="F423" s="8" t="s">
-        <v>673</v>
+        <v>641</v>
       </c>
       <c r="G423" s="4" t="s">
-        <v>648</v>
+        <v>618</v>
       </c>
     </row>
     <row r="424" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E424" s="4" t="s">
-        <v>723</v>
+        <v>681</v>
       </c>
       <c r="F424" s="8" t="s">
-        <v>665</v>
+        <v>633</v>
       </c>
       <c r="G424" s="4" t="s">
-        <v>648</v>
+        <v>618</v>
       </c>
     </row>
     <row r="425" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E425" s="4" t="s">
-        <v>730</v>
+        <v>688</v>
       </c>
       <c r="F425" s="4" t="s">
-        <v>728</v>
+        <v>686</v>
       </c>
       <c r="G425" s="4" t="s">
-        <v>651</v>
+        <v>621</v>
       </c>
     </row>
     <row r="426" spans="3:7" ht="24" x14ac:dyDescent="0.15">
       <c r="E426" s="4" t="s">
-        <v>725</v>
+        <v>683</v>
       </c>
       <c r="F426" s="8" t="s">
-        <v>638</v>
+        <v>608</v>
       </c>
       <c r="G426" s="4" t="s">
-        <v>652</v>
+        <v>622</v>
       </c>
     </row>
     <row r="427" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E427" s="4" t="s">
-        <v>674</v>
+        <v>642</v>
       </c>
       <c r="F427" s="4" t="s">
-        <v>666</v>
+        <v>634</v>
       </c>
       <c r="G427" s="4" t="s">
-        <v>653</v>
+        <v>623</v>
       </c>
     </row>
     <row r="428" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E428" s="4" t="s">
-        <v>675</v>
+        <v>643</v>
       </c>
       <c r="F428" s="4" t="s">
-        <v>676</v>
+        <v>644</v>
       </c>
       <c r="G428" s="4" t="s">
-        <v>670</v>
+        <v>638</v>
       </c>
     </row>
     <row r="429" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E429" s="4" t="s">
-        <v>663</v>
+        <v>631</v>
       </c>
     </row>
     <row r="430" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E430" s="4" t="s">
-        <v>649</v>
+        <v>619</v>
       </c>
     </row>
     <row r="431" spans="3:7" x14ac:dyDescent="0.15">
@@ -9018,7 +9086,7 @@
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C439" s="4" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="F439" s="4" t="s">
         <v>17</v>
@@ -9029,21 +9097,21 @@
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C440" s="4" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="F440" s="4" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="G440" s="4" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
     </row>
     <row r="441" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="C441" s="4" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="F441" s="8" t="s">
-        <v>913</v>
+        <v>856</v>
       </c>
       <c r="G441" s="4" t="s">
         <v>2</v>
@@ -9051,7 +9119,7 @@
     </row>
     <row r="442" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="C442" s="4" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D442" s="4" t="s">
         <v>45</v>
@@ -9060,75 +9128,75 @@
         <v>135</v>
       </c>
       <c r="G442" s="8" t="s">
-        <v>914</v>
+        <v>857</v>
       </c>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D443" s="4" t="s">
-        <v>776</v>
+        <v>725</v>
       </c>
       <c r="F443" s="4" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D444" s="4" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="F444" s="4" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D445" s="4" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="F445" s="4" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D446" s="4" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F446" s="4" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D447" s="4" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="F447" s="4" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="G447" s="4" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D448" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F448" s="4" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="G448" s="21" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D449" s="4" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="F449" s="4" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="G449" s="21"/>
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D450" s="4" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="F450" s="4" t="s">
         <v>19</v>
@@ -9137,10 +9205,10 @@
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D451" s="4" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="F451" s="4" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="G451" s="4" t="s">
         <v>118</v>
@@ -9148,10 +9216,10 @@
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D452" s="4" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="F452" s="4" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="G452" s="4" t="s">
         <v>118</v>
@@ -9159,7 +9227,7 @@
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D453" s="4" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="F453" s="4" t="s">
         <v>24</v>
@@ -9170,10 +9238,10 @@
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D454" s="4" t="s">
-        <v>277</v>
+        <v>912</v>
       </c>
       <c r="G454" s="4" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.15">
@@ -9181,48 +9249,48 @@
         <v>123</v>
       </c>
       <c r="G455" s="4" t="s">
-        <v>744</v>
+        <v>699</v>
       </c>
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E456" s="4" t="s">
-        <v>770</v>
+        <v>913</v>
       </c>
       <c r="F456" s="4" t="s">
-        <v>420</v>
+        <v>919</v>
       </c>
       <c r="G456" s="15"/>
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E457" s="4" t="s">
-        <v>802</v>
+        <v>718</v>
       </c>
       <c r="F457" s="4" t="s">
-        <v>804</v>
+        <v>916</v>
       </c>
       <c r="G457" s="15"/>
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E458" s="4" t="s">
-        <v>430</v>
+        <v>914</v>
       </c>
       <c r="F458" s="4" t="s">
-        <v>429</v>
+        <v>917</v>
       </c>
       <c r="G458" s="15"/>
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E459" s="4" t="s">
-        <v>320</v>
+        <v>915</v>
       </c>
       <c r="F459" s="4" t="s">
-        <v>136</v>
+        <v>918</v>
       </c>
       <c r="G459" s="15"/>
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E460" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G460" s="15"/>
     </row>
@@ -9238,12 +9306,12 @@
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A464" s="3" t="s">
-        <v>544</v>
+        <v>525</v>
       </c>
     </row>
     <row r="465" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B465" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="466" spans="2:7" x14ac:dyDescent="0.15">
@@ -9251,7 +9319,7 @@
         <v>26</v>
       </c>
       <c r="G466" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="467" spans="2:7" x14ac:dyDescent="0.15">
@@ -9269,32 +9337,32 @@
     </row>
     <row r="469" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C469" s="4" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="F469" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G469" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="G469" s="4" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="470" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C470" s="4" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="F470" s="4" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="G470" s="4" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
     </row>
     <row r="471" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C471" s="4" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="F471" s="4" t="s">
-        <v>561</v>
+        <v>542</v>
       </c>
       <c r="G471" s="4" t="s">
         <v>3</v>
@@ -9302,303 +9370,303 @@
     </row>
     <row r="472" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C472" s="4" t="s">
-        <v>743</v>
+        <v>698</v>
       </c>
       <c r="F472" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="473" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C473" s="4" t="s">
-        <v>742</v>
+        <v>697</v>
       </c>
       <c r="F473" s="4" t="s">
-        <v>524</v>
+        <v>505</v>
       </c>
     </row>
     <row r="474" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C474" s="4" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="F474" s="4" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="G474" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="475" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C475" s="4" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="F475" s="4" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="G475" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="476" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C476" s="4" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="F476" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G476" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="G476" s="4" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="477" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C477" s="4" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="F477" s="4" t="s">
-        <v>525</v>
+        <v>506</v>
       </c>
     </row>
     <row r="478" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C478" s="4" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="F478" s="4" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="G478" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="479" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C479" s="4" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="F479" s="4" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="G479" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="480" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C480" s="4" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="F480" s="4" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="G480" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="481" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C481" s="4" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="F481" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G481" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="482" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C482" s="4" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="F482" s="4" t="s">
-        <v>526</v>
+        <v>507</v>
       </c>
     </row>
     <row r="483" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C483" s="4" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="F483" s="4" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="G483" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="484" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C484" s="4" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="F484" s="4" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="G484" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="485" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C485" s="4" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="F485" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G485" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="486" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C486" s="4" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="F486" s="4" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="G486" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="487" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C487" s="4" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="F487" s="4" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="G487" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="488" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C488" s="4" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="F488" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G488" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="489" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C489" s="4" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="F489" s="4" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
     </row>
     <row r="490" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C490" s="4" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="F490" s="4" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="G490" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="491" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C491" s="4" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="F491" s="4" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="G491" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="492" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C492" s="4" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="F492" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G492" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="G492" s="4" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="493" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C493" s="4" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="F493" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G493" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="494" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C494" s="4" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="F494" s="4" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
     </row>
     <row r="495" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C495" s="4" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="F495" s="4" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="G495" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="496" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C496" s="4" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="F496" s="4" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="G496" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C497" s="4" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="F497" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G497" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C498" s="4" t="s">
-        <v>560</v>
+        <v>541</v>
       </c>
       <c r="F498" s="4" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="G498" s="4" t="s">
-        <v>528</v>
+        <v>509</v>
       </c>
     </row>
     <row r="499" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C499" s="4" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="F499" s="4" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="G499" s="4" t="s">
-        <v>529</v>
+        <v>510</v>
       </c>
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C500" s="4" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="F500" s="4" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="G500" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.15">
@@ -9608,20 +9676,20 @@
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A503" s="3" t="s">
-        <v>542</v>
+        <v>523</v>
       </c>
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B504" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="505" spans="1:7" x14ac:dyDescent="0.15">
       <c r="F505" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G505" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G505" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.15">
@@ -9639,10 +9707,10 @@
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C508" s="4" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="F508" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G508" s="4" t="s">
         <v>86</v>
@@ -9650,21 +9718,21 @@
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C509" s="4" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="F509" s="4" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="G509" s="4" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
     </row>
     <row r="510" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="C510" s="4" t="s">
-        <v>559</v>
+        <v>540</v>
       </c>
       <c r="F510" s="8" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="G510" s="4" t="s">
         <v>3</v>
@@ -9677,12 +9745,12 @@
     </row>
     <row r="513" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A513" s="3" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="514" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B514" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="515" spans="1:8" x14ac:dyDescent="0.15">
@@ -9690,12 +9758,12 @@
         <v>26</v>
       </c>
       <c r="G515" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="516" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B516" s="4" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F516" s="4" t="s">
         <v>50</v>
@@ -9708,10 +9776,10 @@
     </row>
     <row r="518" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C518" s="4" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="F518" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G518" s="4" t="s">
         <v>110</v>
@@ -9719,27 +9787,27 @@
     </row>
     <row r="519" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C519" s="4" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="F519" s="4" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="G519" s="4" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
     </row>
     <row r="520" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="C520" s="4" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="F520" s="8" t="s">
-        <v>463</v>
+        <v>444</v>
       </c>
       <c r="G520" s="4" t="s">
         <v>110</v>
       </c>
       <c r="H520" s="4" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
     </row>
     <row r="521" spans="1:8" x14ac:dyDescent="0.15">
@@ -9749,12 +9817,12 @@
     </row>
     <row r="523" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A523" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="524" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B524" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="525" spans="1:8" x14ac:dyDescent="0.15">
@@ -9780,7 +9848,7 @@
     </row>
     <row r="528" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C528" s="4" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="F528" s="4" t="s">
         <v>17</v>
@@ -9791,21 +9859,21 @@
     </row>
     <row r="529" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C529" s="4" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="F529" s="4" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="G529" s="4" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
     </row>
     <row r="530" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="C530" s="4" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="F530" s="8" t="s">
-        <v>758</v>
+        <v>707</v>
       </c>
       <c r="G530" s="4" t="s">
         <v>2</v>
@@ -9813,66 +9881,66 @@
     </row>
     <row r="531" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C531" s="4" t="s">
-        <v>757</v>
+        <v>706</v>
       </c>
       <c r="F531" s="4" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="G531" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="532" spans="1:8" ht="36" x14ac:dyDescent="0.15">
       <c r="C532" s="4" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="F532" s="4" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="G532" s="8" t="s">
-        <v>592</v>
+        <v>573</v>
       </c>
       <c r="H532" s="13" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
     </row>
     <row r="533" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="C533" s="4" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="F533" s="4" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="G533" s="8" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="H533" s="14"/>
     </row>
     <row r="534" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="C534" s="4" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="F534" s="4" t="s">
-        <v>756</v>
+        <v>705</v>
       </c>
       <c r="G534" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="535" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="C535" s="4" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F535" s="8" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="G535" s="8" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
     </row>
     <row r="536" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C536" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="537" spans="1:8" x14ac:dyDescent="0.15">
@@ -9883,7 +9951,7 @@
     </row>
     <row r="538" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A538" s="3" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
     </row>
     <row r="539" spans="1:8" x14ac:dyDescent="0.15">
@@ -9914,7 +9982,7 @@
     </row>
     <row r="543" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C543" s="4" t="s">
-        <v>591</v>
+        <v>572</v>
       </c>
       <c r="F543" s="4" t="s">
         <v>17</v>
@@ -9925,10 +9993,10 @@
     </row>
     <row r="544" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C544" s="4" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="F544" s="4" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="G544" s="4" t="s">
         <v>3</v>
@@ -9936,10 +10004,10 @@
     </row>
     <row r="545" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C545" s="4" t="s">
-        <v>680</v>
+        <v>647</v>
       </c>
       <c r="F545" s="4" t="s">
-        <v>681</v>
+        <v>648</v>
       </c>
       <c r="G545" s="4" t="s">
         <v>3</v>
@@ -9947,10 +10015,10 @@
     </row>
     <row r="546" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C546" s="4" t="s">
-        <v>683</v>
+        <v>650</v>
       </c>
       <c r="F546" s="4" t="s">
-        <v>682</v>
+        <v>649</v>
       </c>
       <c r="G546" s="4" t="s">
         <v>3</v>
@@ -9959,144 +10027,144 @@
     </row>
     <row r="547" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C547" s="4" t="s">
-        <v>593</v>
+        <v>928</v>
       </c>
       <c r="G547" s="8"/>
       <c r="H547" s="11"/>
     </row>
     <row r="548" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D548" s="4" t="s">
-        <v>745</v>
+        <v>700</v>
       </c>
       <c r="G548" s="8"/>
       <c r="H548" s="13"/>
     </row>
     <row r="549" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D549" s="4" t="s">
-        <v>684</v>
+        <v>926</v>
       </c>
       <c r="G549" s="8"/>
       <c r="H549" s="12"/>
     </row>
     <row r="550" spans="3:8" x14ac:dyDescent="0.15">
       <c r="E550" s="4" t="s">
-        <v>594</v>
+        <v>574</v>
       </c>
       <c r="G550" s="8"/>
       <c r="H550" s="12"/>
     </row>
     <row r="551" spans="3:8" x14ac:dyDescent="0.15">
       <c r="E551" s="4" t="s">
-        <v>597</v>
+        <v>577</v>
       </c>
       <c r="F551" s="4" t="s">
-        <v>602</v>
+        <v>920</v>
       </c>
       <c r="G551" s="8"/>
       <c r="H551" s="12"/>
     </row>
     <row r="552" spans="3:8" x14ac:dyDescent="0.15">
       <c r="E552" s="4" t="s">
-        <v>741</v>
+        <v>923</v>
       </c>
       <c r="F552" s="4" t="s">
-        <v>740</v>
+        <v>696</v>
       </c>
       <c r="G552" s="8"/>
       <c r="H552" s="12"/>
     </row>
     <row r="553" spans="3:8" x14ac:dyDescent="0.15">
       <c r="E553" s="4" t="s">
-        <v>598</v>
+        <v>578</v>
       </c>
       <c r="G553" s="8"/>
       <c r="H553" s="12"/>
     </row>
     <row r="554" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D554" s="4" t="s">
-        <v>599</v>
+        <v>927</v>
       </c>
       <c r="G554" s="8"/>
       <c r="H554" s="12"/>
     </row>
     <row r="555" spans="3:8" x14ac:dyDescent="0.15">
       <c r="E555" s="4" t="s">
-        <v>594</v>
+        <v>574</v>
       </c>
       <c r="G555" s="8"/>
       <c r="H555" s="12"/>
     </row>
     <row r="556" spans="3:8" x14ac:dyDescent="0.15">
       <c r="E556" s="4" t="s">
-        <v>597</v>
+        <v>577</v>
       </c>
       <c r="F556" s="4" t="s">
-        <v>603</v>
+        <v>921</v>
       </c>
       <c r="G556" s="8"/>
       <c r="H556" s="12"/>
     </row>
     <row r="557" spans="3:8" x14ac:dyDescent="0.15">
       <c r="E557" s="4" t="s">
-        <v>600</v>
+        <v>924</v>
       </c>
       <c r="F557" s="4" t="s">
-        <v>601</v>
+        <v>579</v>
       </c>
       <c r="G557" s="8"/>
       <c r="H557" s="12"/>
     </row>
     <row r="558" spans="3:8" x14ac:dyDescent="0.15">
       <c r="E558" s="4" t="s">
-        <v>598</v>
+        <v>578</v>
       </c>
       <c r="G558" s="8"/>
       <c r="H558" s="12"/>
     </row>
     <row r="559" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D559" s="4" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
       <c r="G559" s="8"/>
       <c r="H559" s="12"/>
     </row>
     <row r="560" spans="3:8" x14ac:dyDescent="0.15">
       <c r="E560" s="4" t="s">
-        <v>594</v>
+        <v>574</v>
       </c>
       <c r="G560" s="8"/>
       <c r="H560" s="12"/>
     </row>
     <row r="561" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E561" s="4" t="s">
-        <v>597</v>
+        <v>577</v>
       </c>
       <c r="F561" s="4" t="s">
-        <v>606</v>
+        <v>922</v>
       </c>
       <c r="G561" s="8"/>
       <c r="H561" s="12"/>
     </row>
     <row r="562" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E562" s="4" t="s">
-        <v>600</v>
+        <v>925</v>
       </c>
       <c r="F562" s="4" t="s">
-        <v>601</v>
+        <v>579</v>
       </c>
       <c r="G562" s="8"/>
       <c r="H562" s="12"/>
     </row>
     <row r="563" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E563" s="4" t="s">
-        <v>604</v>
+        <v>580</v>
       </c>
       <c r="G563" s="8"/>
       <c r="H563" s="12"/>
     </row>
     <row r="564" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D564" s="4" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
       <c r="F564" s="8"/>
       <c r="G564" s="8"/>
@@ -10108,7 +10176,7 @@
     </row>
     <row r="567" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A567" s="19" t="s">
-        <v>884</v>
+        <v>827</v>
       </c>
       <c r="B567" s="16"/>
       <c r="C567" s="16"/>
@@ -10169,7 +10237,7 @@
       <c r="A572" s="16"/>
       <c r="B572" s="16"/>
       <c r="C572" s="16" t="s">
-        <v>883</v>
+        <v>826</v>
       </c>
       <c r="D572" s="16"/>
       <c r="E572" s="16"/>
@@ -10184,12 +10252,12 @@
       <c r="A573" s="16"/>
       <c r="B573" s="16"/>
       <c r="C573" s="16" t="s">
-        <v>885</v>
+        <v>828</v>
       </c>
       <c r="D573" s="16"/>
       <c r="E573" s="16"/>
       <c r="F573" s="16" t="s">
-        <v>887</v>
+        <v>830</v>
       </c>
       <c r="G573" s="16" t="s">
         <v>3</v>
